--- a/email_templates.xlsx
+++ b/email_templates.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thanos\Desktop\dist\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thanos\Downloads\email_responses-main\email_responses-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6CFB883-31A5-4C54-8147-255ECBB8033A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{865151FE-AD19-4166-8391-C6856E46856E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E9268607-7B35-4D3E-A3F0-87E6D6549C6F}"/>
   </bookViews>
@@ -456,11 +456,6 @@
 Η ακύρωση ενός ενεργού κωδικού αποστολής, ή η αλλαγή του μεγέθους της θυρίδας δεν είναι εφικτές διαδικασίες. Για να στείλετε ένα δέμα μεγαλύτερου μεγέθους θα πρέπει να εκδώσετε έναν διαφορετικό κωδικό αποστολής για μεγαλύτερο δέμα.</t>
   </si>
   <si>
-    <t xml:space="preserve">Καλημέρα  Καλησπέρα σας,
-Σας ευχαριστούμε πολύ για την επικοινωνία.
-Παρακαλούμε όπως προωθήσετε το αίτημα σας στο αρμόδιο μας τμήμα, ict@boxnow.gr    </t>
-  </si>
-  <si>
     <t xml:space="preserve">&lt;greeting&gt;,
 Σας ευχαριστούμε πολύ για την επικοινωνία.
 Παρακαλούμε να αποστείλετε το αίτημα σας στο αρμόδιο μας τμήμα, partners@boxnow.gr           </t>
@@ -826,6 +821,11 @@
 e-mail:
 Τοποθεσία/Διεύθυνση καταστήματος για τοποθέτηση Locker:
 Σας ευχαριστούμε για την προτίμηση και ανυπομονούμε για την απάντησή σας. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;greeting&gt;,
+Σας ευχαριστούμε πολύ για την επικοινωνία.
+Παρακαλούμε όπως προωθήσετε το αίτημα σας στο αρμόδιο μας τμήμα, ict@boxnow.gr    </t>
   </si>
 </sst>
 </file>
@@ -1469,8 +1469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D004F91A-24E3-4E9F-946D-04712B9573A5}">
   <dimension ref="A1:G147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1504,13 +1504,13 @@
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="45" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="114">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -1519,7 +1519,7 @@
       </c>
       <c r="F5" s="38"/>
       <c r="G5" s="53" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1541,7 +1541,7 @@
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="53" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1563,7 +1563,7 @@
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="53" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1585,7 +1585,7 @@
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="53" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1607,7 +1607,7 @@
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="53" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1629,7 +1629,7 @@
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="53" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1647,11 +1647,11 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="53" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1664,7 +1664,7 @@
     <row r="19" spans="1:7" ht="213.75">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -1673,7 +1673,7 @@
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="53" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="F21" s="38"/>
       <c r="G21" s="53" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1717,7 +1717,7 @@
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="53" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1739,7 +1739,7 @@
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="53" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1761,7 +1761,7 @@
       </c>
       <c r="F27" s="35"/>
       <c r="G27" s="53" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1780,11 +1780,11 @@
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F29" s="35"/>
       <c r="G29" s="53" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1807,7 +1807,7 @@
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="53" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="32" spans="1:7" s="52" customFormat="1">
@@ -1830,7 +1830,7 @@
       </c>
       <c r="F33" s="38"/>
       <c r="G33" s="53" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1852,7 +1852,7 @@
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="54" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1874,7 +1874,7 @@
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="54" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1896,7 +1896,7 @@
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="53" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1918,7 +1918,7 @@
       </c>
       <c r="F41" s="38"/>
       <c r="G41" s="53" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1936,11 +1936,11 @@
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="53" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1962,7 +1962,7 @@
       </c>
       <c r="F45" s="2"/>
       <c r="G45" s="53" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1984,7 +1984,7 @@
       </c>
       <c r="F47" s="38"/>
       <c r="G47" s="53" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -2002,11 +2002,11 @@
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F49" s="2"/>
       <c r="G49" s="53" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -2028,7 +2028,7 @@
       </c>
       <c r="F51" s="2"/>
       <c r="G51" s="53" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -2046,11 +2046,11 @@
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
       <c r="E53" s="23" t="s">
-        <v>92</v>
+        <v>154</v>
       </c>
       <c r="F53" s="2"/>
       <c r="G53" s="56" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -2068,11 +2068,11 @@
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
       <c r="E55" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F55" s="2"/>
       <c r="G55" s="56" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -2094,7 +2094,7 @@
       </c>
       <c r="F57" s="38"/>
       <c r="G57" s="56" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="58" spans="1:7" s="24" customFormat="1">
@@ -2117,7 +2117,7 @@
       </c>
       <c r="F59" s="2"/>
       <c r="G59" s="56" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -2139,7 +2139,7 @@
       </c>
       <c r="F61" s="38"/>
       <c r="G61" s="56" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -2161,7 +2161,7 @@
       </c>
       <c r="F63" s="2"/>
       <c r="G63" s="56" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -2183,7 +2183,7 @@
       </c>
       <c r="F65" s="2"/>
       <c r="G65" s="56" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -2196,7 +2196,7 @@
     <row r="67" spans="1:7" ht="99.75">
       <c r="A67" s="1"/>
       <c r="B67" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" s="10"/>
@@ -2205,7 +2205,7 @@
       </c>
       <c r="F67" s="2"/>
       <c r="G67" s="53" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -2227,7 +2227,7 @@
       </c>
       <c r="F69" s="38"/>
       <c r="G69" s="53" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="27.75" customHeight="1">
@@ -2249,7 +2249,7 @@
       </c>
       <c r="F71" s="38"/>
       <c r="G71" s="53" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="27" customHeight="1">
@@ -2271,7 +2271,7 @@
       </c>
       <c r="F73" s="38"/>
       <c r="G73" s="45" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="39" customHeight="1">
@@ -2293,7 +2293,7 @@
       </c>
       <c r="F75" s="2"/>
       <c r="G75" s="45" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="25.5" customHeight="1">
@@ -2315,7 +2315,7 @@
       </c>
       <c r="F77" s="2"/>
       <c r="G77" s="45" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="27.75" customHeight="1">
@@ -2337,7 +2337,7 @@
       </c>
       <c r="F79" s="38"/>
       <c r="G79" s="53" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -2355,11 +2355,11 @@
       <c r="C81" s="2"/>
       <c r="D81" s="10"/>
       <c r="E81" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F81" s="38"/>
       <c r="G81" s="53" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -2377,11 +2377,11 @@
       <c r="C83" s="2"/>
       <c r="D83" s="10"/>
       <c r="E83" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F83" s="38"/>
       <c r="G83" s="53" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -2403,7 +2403,7 @@
       </c>
       <c r="F85" s="2"/>
       <c r="G85" s="53" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -2425,7 +2425,7 @@
       </c>
       <c r="F87" s="2"/>
       <c r="G87" s="45" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -2447,7 +2447,7 @@
       </c>
       <c r="F89" s="38"/>
       <c r="G89" s="45" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -2469,7 +2469,7 @@
       </c>
       <c r="F91" s="38"/>
       <c r="G91" s="45" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -2491,7 +2491,7 @@
       </c>
       <c r="F93" s="2"/>
       <c r="G93" s="45" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -2513,7 +2513,7 @@
       </c>
       <c r="F95" s="2"/>
       <c r="G95" s="45" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -2535,7 +2535,7 @@
       </c>
       <c r="F97" s="2"/>
       <c r="G97" s="53" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -2557,7 +2557,7 @@
       </c>
       <c r="F99" s="2"/>
       <c r="G99" s="53" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -2570,7 +2570,7 @@
     <row r="101" spans="1:7" s="3" customFormat="1" ht="142.5">
       <c r="A101" s="4"/>
       <c r="B101" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
@@ -2579,7 +2579,7 @@
       </c>
       <c r="F101" s="2"/>
       <c r="G101" s="53" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -2601,7 +2601,7 @@
       </c>
       <c r="F103" s="2"/>
       <c r="G103" s="53" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -2623,7 +2623,7 @@
       </c>
       <c r="F105" s="2"/>
       <c r="G105" s="53" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="106" spans="1:7">

--- a/email_templates.xlsx
+++ b/email_templates.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thanos\Downloads\email_responses-main\email_responses-main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thanos\Desktop\dist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{865151FE-AD19-4166-8391-C6856E46856E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C74F341F-67FB-47A4-87D1-15A0EBB1F581}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E9268607-7B35-4D3E-A3F0-87E6D6549C6F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="157">
   <si>
     <t xml:space="preserve">&lt;greeting&gt;,
 Ευχαριστούμε πολύ για την επικοινωνία.
@@ -826,6 +826,12 @@
     <t xml:space="preserve">&lt;greeting&gt;,
 Σας ευχαριστούμε πολύ για την επικοινωνία.
 Παρακαλούμε όπως προωθήσετε το αίτημα σας στο αρμόδιο μας τμήμα, ict@boxnow.gr    </t>
+  </si>
+  <si>
+    <t>test_update2</t>
+  </si>
+  <si>
+    <t>works bitch2</t>
   </si>
 </sst>
 </file>
@@ -1469,8 +1475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D004F91A-24E3-4E9F-946D-04712B9573A5}">
   <dimension ref="A1:G147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E53" sqref="E53"/>
+    <sheetView tabSelected="1" topLeftCell="A103" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E107" sqref="E107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2636,10 +2642,14 @@
       <c r="G106" s="29"/>
     </row>
     <row r="107" spans="1:7" ht="171" customHeight="1">
-      <c r="B107" s="5"/>
+      <c r="B107" s="5" t="s">
+        <v>155</v>
+      </c>
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
-      <c r="E107" s="18"/>
+      <c r="E107" s="18" t="s">
+        <v>156</v>
+      </c>
       <c r="F107" s="33"/>
     </row>
     <row r="108" spans="1:7">

--- a/email_templates.xlsx
+++ b/email_templates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thanos\Desktop\dist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C74F341F-67FB-47A4-87D1-15A0EBB1F581}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B81711C2-8F8C-4A6D-A13B-73B7C25D939E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E9268607-7B35-4D3E-A3F0-87E6D6549C6F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="155">
   <si>
     <t xml:space="preserve">&lt;greeting&gt;,
 Ευχαριστούμε πολύ για την επικοινωνία.
@@ -826,12 +826,6 @@
     <t xml:space="preserve">&lt;greeting&gt;,
 Σας ευχαριστούμε πολύ για την επικοινωνία.
 Παρακαλούμε όπως προωθήσετε το αίτημα σας στο αρμόδιο μας τμήμα, ict@boxnow.gr    </t>
-  </si>
-  <si>
-    <t>test_update2</t>
-  </si>
-  <si>
-    <t>works bitch2</t>
   </si>
 </sst>
 </file>
@@ -2642,14 +2636,10 @@
       <c r="G106" s="29"/>
     </row>
     <row r="107" spans="1:7" ht="171" customHeight="1">
-      <c r="B107" s="5" t="s">
-        <v>155</v>
-      </c>
+      <c r="B107" s="5"/>
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
-      <c r="E107" s="18" t="s">
-        <v>156</v>
-      </c>
+      <c r="E107" s="18"/>
       <c r="F107" s="33"/>
     </row>
     <row r="108" spans="1:7">

--- a/email_templates.xlsx
+++ b/email_templates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thanos\Desktop\dist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B81711C2-8F8C-4A6D-A13B-73B7C25D939E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A4C87F8-27A5-4138-B2EF-21D01AFDA0B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E9268607-7B35-4D3E-A3F0-87E6D6549C6F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="157">
   <si>
     <t xml:space="preserve">&lt;greeting&gt;,
 Ευχαριστούμε πολύ για την επικοινωνία.
@@ -826,6 +826,12 @@
     <t xml:space="preserve">&lt;greeting&gt;,
 Σας ευχαριστούμε πολύ για την επικοινωνία.
 Παρακαλούμε όπως προωθήσετε το αίτημα σας στο αρμόδιο μας τμήμα, ict@boxnow.gr    </t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>works</t>
   </si>
 </sst>
 </file>
@@ -2636,10 +2642,14 @@
       <c r="G106" s="29"/>
     </row>
     <row r="107" spans="1:7" ht="171" customHeight="1">
-      <c r="B107" s="5"/>
+      <c r="B107" s="5" t="s">
+        <v>155</v>
+      </c>
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
-      <c r="E107" s="18"/>
+      <c r="E107" s="18" t="s">
+        <v>156</v>
+      </c>
       <c r="F107" s="33"/>
     </row>
     <row r="108" spans="1:7">

--- a/email_templates.xlsx
+++ b/email_templates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thanos\Desktop\dist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A4C87F8-27A5-4138-B2EF-21D01AFDA0B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA7755EC-92CF-47D4-B2AC-7A5C871B7B35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E9268607-7B35-4D3E-A3F0-87E6D6549C6F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="155">
   <si>
     <t xml:space="preserve">&lt;greeting&gt;,
 Ευχαριστούμε πολύ για την επικοινωνία.
@@ -826,12 +826,6 @@
     <t xml:space="preserve">&lt;greeting&gt;,
 Σας ευχαριστούμε πολύ για την επικοινωνία.
 Παρακαλούμε όπως προωθήσετε το αίτημα σας στο αρμόδιο μας τμήμα, ict@boxnow.gr    </t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>works</t>
   </si>
 </sst>
 </file>
@@ -2642,14 +2636,10 @@
       <c r="G106" s="29"/>
     </row>
     <row r="107" spans="1:7" ht="171" customHeight="1">
-      <c r="B107" s="5" t="s">
-        <v>155</v>
-      </c>
+      <c r="B107" s="5"/>
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
-      <c r="E107" s="18" t="s">
-        <v>156</v>
-      </c>
+      <c r="E107" s="18"/>
       <c r="F107" s="33"/>
     </row>
     <row r="108" spans="1:7">

--- a/email_templates.xlsx
+++ b/email_templates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thanos\Desktop\dist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA7755EC-92CF-47D4-B2AC-7A5C871B7B35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F56C650D-EE17-44FB-A758-C3AADBB4377F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E9268607-7B35-4D3E-A3F0-87E6D6549C6F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="157">
   <si>
     <t xml:space="preserve">&lt;greeting&gt;,
 Ευχαριστούμε πολύ για την επικοινωνία.
@@ -826,6 +826,12 @@
     <t xml:space="preserve">&lt;greeting&gt;,
 Σας ευχαριστούμε πολύ για την επικοινωνία.
 Παρακαλούμε όπως προωθήσετε το αίτημα σας στο αρμόδιο μας τμήμα, ict@boxnow.gr    </t>
+  </si>
+  <si>
+    <t>update</t>
+  </si>
+  <si>
+    <t>works</t>
   </si>
 </sst>
 </file>
@@ -2636,10 +2642,14 @@
       <c r="G106" s="29"/>
     </row>
     <row r="107" spans="1:7" ht="171" customHeight="1">
-      <c r="B107" s="5"/>
+      <c r="B107" s="5" t="s">
+        <v>155</v>
+      </c>
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
-      <c r="E107" s="18"/>
+      <c r="E107" s="18" t="s">
+        <v>156</v>
+      </c>
       <c r="F107" s="33"/>
     </row>
     <row r="108" spans="1:7">

--- a/email_templates.xlsx
+++ b/email_templates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thanos\Desktop\dist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F56C650D-EE17-44FB-A758-C3AADBB4377F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41ED0429-230A-4BF8-A13B-B0FE73029783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E9268607-7B35-4D3E-A3F0-87E6D6549C6F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="155">
   <si>
     <t xml:space="preserve">&lt;greeting&gt;,
 Ευχαριστούμε πολύ για την επικοινωνία.
@@ -826,12 +826,6 @@
     <t xml:space="preserve">&lt;greeting&gt;,
 Σας ευχαριστούμε πολύ για την επικοινωνία.
 Παρακαλούμε όπως προωθήσετε το αίτημα σας στο αρμόδιο μας τμήμα, ict@boxnow.gr    </t>
-  </si>
-  <si>
-    <t>update</t>
-  </si>
-  <si>
-    <t>works</t>
   </si>
 </sst>
 </file>
@@ -2642,14 +2636,10 @@
       <c r="G106" s="29"/>
     </row>
     <row r="107" spans="1:7" ht="171" customHeight="1">
-      <c r="B107" s="5" t="s">
-        <v>155</v>
-      </c>
+      <c r="B107" s="5"/>
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
-      <c r="E107" s="18" t="s">
-        <v>156</v>
-      </c>
+      <c r="E107" s="18"/>
       <c r="F107" s="33"/>
     </row>
     <row r="108" spans="1:7">

--- a/email_templates.xlsx
+++ b/email_templates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thanos\Desktop\dist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41ED0429-230A-4BF8-A13B-B0FE73029783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9D1FF31-B42A-4C51-A475-598D4AF88206}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E9268607-7B35-4D3E-A3F0-87E6D6549C6F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="157">
   <si>
     <t xml:space="preserve">&lt;greeting&gt;,
 Ευχαριστούμε πολύ για την επικοινωνία.
@@ -826,6 +826,17 @@
     <t xml:space="preserve">&lt;greeting&gt;,
 Σας ευχαριστούμε πολύ για την επικοινωνία.
 Παρακαλούμε όπως προωθήσετε το αίτημα σας στο αρμόδιο μας τμήμα, ict@boxnow.gr    </t>
+  </si>
+  <si>
+    <t>Ετοιμο για παραλαβή στον προορισμό</t>
+  </si>
+  <si>
+    <t>&lt;greeting&gt;,
+Σας ευχαριστούμε πολύ για την επικοινωνία. 
+Το δέμα σας είναι διαθέσιμο για παραλαβή 48 ώρες από την στιγμή παράδοσης του στο locker. Μπορείτε να επεκτείνετε αυτό τον χρόνο για 24 ακόμα ώρες μέσω της ιστοσελίδας
+https://boxnow.gr/track
+Φροντίζουμε να σας υπενθυμίζουμε την παραλαβή του δέματος σας με μήνυμα στο κινητό σας 1 και 2 ημέρες πριν λήξει αυτή η περίοδος!
+Παραμένουμε στη διάθεσή σας για οτιδήποτε άλλο χρειαστείτε.</t>
   </si>
 </sst>
 </file>
@@ -1005,7 +1016,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1132,6 +1143,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2636,10 +2650,14 @@
       <c r="G106" s="29"/>
     </row>
     <row r="107" spans="1:7" ht="171" customHeight="1">
-      <c r="B107" s="5"/>
+      <c r="B107" s="57" t="s">
+        <v>155</v>
+      </c>
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
-      <c r="E107" s="18"/>
+      <c r="E107" s="13" t="s">
+        <v>156</v>
+      </c>
       <c r="F107" s="33"/>
     </row>
     <row r="108" spans="1:7">

--- a/email_templates.xlsx
+++ b/email_templates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thanos\Desktop\dist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9D1FF31-B42A-4C51-A475-598D4AF88206}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AFFE4DD-52E9-47CC-A7B6-D90390744E0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E9268607-7B35-4D3E-A3F0-87E6D6549C6F}"/>
+    <workbookView xWindow="2610" yWindow="2220" windowWidth="21600" windowHeight="11385" xr2:uid="{E9268607-7B35-4D3E-A3F0-87E6D6549C6F}"/>
   </bookViews>
   <sheets>
     <sheet name="Φύλλο1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="164">
   <si>
     <t xml:space="preserve">&lt;greeting&gt;,
 Ευχαριστούμε πολύ για την επικοινωνία.
@@ -837,6 +837,35 @@
 https://boxnow.gr/track
 Φροντίζουμε να σας υπενθυμίζουμε την παραλαβή του δέματος σας με μήνυμα στο κινητό σας 1 και 2 ημέρες πριν λήξει αυτή η περίοδος!
 Παραμένουμε στη διάθεσή σας για οτιδήποτε άλλο χρειαστείτε.</t>
+  </si>
+  <si>
+    <t>&lt;greeting&gt;,
+Σας ευχαριστούμε πολύ για την επικοινωνία.
+Τα σχόλια σας -είτε θετικά είτε αρνητικά- είναι πάντα ευπρόσδεκτα και προωθούνται στο αρμόδιο τμήμα! Σας διαβεβαιώνουμε ότι καταβάλλουμε κάθε δυνατή προσπάθεια για την άψογη εξυπηρέτηση των πελατών μας.</t>
+  </si>
+  <si>
+    <t>&lt;greeting&gt;,
+Thank you very much for contacting us.
+Your comments-whether positive or negative - are always welcome and forwarded to the relevant department! We assure you that we make every effort for the excellent service of our customers.</t>
+  </si>
+  <si>
+    <t>&lt;greeting&gt;,
+Σας ευχαριστούμε πολύ για την επικοινωνία.
+Θα θέλαμε να σας ενημερώσουμε ότι η εταιρεία μας αναλαμβάνει αποκλειστικά τη μεταφορά και παράδοση των αποστολών. Για οποιοδήποτε θέμα αφορά την παραγγελία σας πέρα αυτού παρακαλούμε όπως επικοινωνήσετε απευθείας με το ηλεκτρονικό κατάστημα από το οποίο πραγματοποιήσατε την αγορά.</t>
+  </si>
+  <si>
+    <t>&lt;greeting&gt;,
+Σας ευχαριστούμε πολύ για την επικοινωνία.
+Θα χρειαστεί να μας αναφέρετε τον 10ψήφιο αριθμό δέματος της Boxnow καθώς αυτός που έχετε αναγράψει δεν αντιστοιχεί σε κάποια αποστολή.</t>
+  </si>
+  <si>
+    <t>Σχόλια</t>
+  </si>
+  <si>
+    <t>Επικοινωνία με eshop</t>
+  </si>
+  <si>
+    <t>Λάθος 10ψηψιος</t>
   </si>
 </sst>
 </file>
@@ -1016,7 +1045,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1147,6 +1176,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1483,8 +1513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D004F91A-24E3-4E9F-946D-04712B9573A5}">
   <dimension ref="A1:G147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E107" sqref="E107"/>
+    <sheetView tabSelected="1" topLeftCell="A112" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B113" sqref="B113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2668,11 +2698,18 @@
       <c r="E108" s="19"/>
     </row>
     <row r="109" spans="1:7" ht="171" customHeight="1">
-      <c r="B109" s="5"/>
+      <c r="B109" s="5" t="s">
+        <v>161</v>
+      </c>
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
-      <c r="E109" s="18"/>
+      <c r="E109" s="13" t="s">
+        <v>157</v>
+      </c>
       <c r="F109" s="33"/>
+      <c r="G109" s="54" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="3"/>
@@ -2682,11 +2719,16 @@
       <c r="E110" s="19"/>
     </row>
     <row r="111" spans="1:7" ht="171" customHeight="1">
-      <c r="B111" s="5"/>
+      <c r="B111" s="5" t="s">
+        <v>162</v>
+      </c>
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
-      <c r="E111" s="18"/>
+      <c r="E111" s="13" t="s">
+        <v>159</v>
+      </c>
       <c r="F111" s="33"/>
+      <c r="G111" s="58"/>
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="3"/>
@@ -2695,92 +2737,98 @@
       <c r="D112" s="1"/>
       <c r="E112" s="19"/>
     </row>
-    <row r="113" spans="1:5" ht="171" customHeight="1">
-      <c r="B113" s="5"/>
+    <row r="113" spans="1:7" ht="171" customHeight="1">
+      <c r="B113" s="5" t="s">
+        <v>163</v>
+      </c>
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
-      <c r="E113" s="18"/>
-    </row>
-    <row r="115" spans="1:5" ht="171" customHeight="1">
+      <c r="E113" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="F113" s="33"/>
+      <c r="G113" s="58"/>
+    </row>
+    <row r="115" spans="1:7" ht="171" customHeight="1">
       <c r="B115" s="5"/>
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
       <c r="E115" s="18"/>
     </row>
-    <row r="116" spans="1:5">
+    <row r="116" spans="1:7">
       <c r="A116" s="3"/>
       <c r="B116" s="7"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
       <c r="E116" s="19"/>
     </row>
-    <row r="117" spans="1:5" ht="171" customHeight="1">
+    <row r="117" spans="1:7" ht="171" customHeight="1">
       <c r="B117" s="5"/>
       <c r="C117" s="2"/>
       <c r="D117" s="2"/>
       <c r="E117" s="18"/>
     </row>
-    <row r="118" spans="1:5" ht="18.75" customHeight="1">
+    <row r="118" spans="1:7" ht="18.75" customHeight="1">
       <c r="B118" s="7"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
       <c r="E118" s="19"/>
     </row>
-    <row r="119" spans="1:5" ht="171" customHeight="1">
+    <row r="119" spans="1:7" ht="171" customHeight="1">
       <c r="B119" s="5"/>
       <c r="C119" s="2"/>
       <c r="D119" s="2"/>
       <c r="E119" s="18"/>
     </row>
-    <row r="120" spans="1:5">
+    <row r="120" spans="1:7">
       <c r="B120" s="7"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
       <c r="E120" s="19"/>
     </row>
-    <row r="121" spans="1:5" ht="171" customHeight="1">
+    <row r="121" spans="1:7" ht="171" customHeight="1">
       <c r="B121" s="5"/>
       <c r="C121" s="2"/>
       <c r="D121" s="2"/>
       <c r="E121" s="18"/>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122" spans="1:7">
       <c r="B122" s="7"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
       <c r="E122" s="19"/>
     </row>
-    <row r="123" spans="1:5" ht="171" customHeight="1">
+    <row r="123" spans="1:7" ht="171" customHeight="1">
       <c r="B123" s="5"/>
       <c r="C123" s="2"/>
       <c r="D123" s="2"/>
       <c r="E123" s="18"/>
     </row>
-    <row r="124" spans="1:5">
+    <row r="124" spans="1:7">
       <c r="B124" s="7"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
       <c r="E124" s="19"/>
     </row>
-    <row r="125" spans="1:5" ht="171" customHeight="1">
+    <row r="125" spans="1:7" ht="171" customHeight="1">
       <c r="B125" s="5"/>
       <c r="C125" s="2"/>
       <c r="D125" s="2"/>
       <c r="E125" s="18"/>
     </row>
-    <row r="126" spans="1:5">
+    <row r="126" spans="1:7">
       <c r="B126" s="7"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
       <c r="E126" s="19"/>
     </row>
-    <row r="127" spans="1:5" ht="171" customHeight="1">
+    <row r="127" spans="1:7" ht="171" customHeight="1">
       <c r="B127" s="5"/>
       <c r="C127" s="2"/>
       <c r="D127" s="2"/>
       <c r="E127" s="18"/>
     </row>
-    <row r="128" spans="1:5">
+    <row r="128" spans="1:7">
       <c r="B128" s="7"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>

--- a/email_templates.xlsx
+++ b/email_templates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thanos\Desktop\dist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AFFE4DD-52E9-47CC-A7B6-D90390744E0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04815FB9-A22A-40B4-91E9-C8CFA5F7CFEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2610" yWindow="2220" windowWidth="21600" windowHeight="11385" xr2:uid="{E9268607-7B35-4D3E-A3F0-87E6D6549C6F}"/>
+    <workbookView xWindow="2505" yWindow="1065" windowWidth="21600" windowHeight="11385" xr2:uid="{E9268607-7B35-4D3E-A3F0-87E6D6549C6F}"/>
   </bookViews>
   <sheets>
     <sheet name="Φύλλο1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="174">
   <si>
     <t xml:space="preserve">&lt;greeting&gt;,
 Ευχαριστούμε πολύ για την επικοινωνία.
@@ -841,38 +841,91 @@
   <si>
     <t>&lt;greeting&gt;,
 Σας ευχαριστούμε πολύ για την επικοινωνία.
+Θα θέλαμε να σας ενημερώσουμε ότι η εταιρεία μας αναλαμβάνει αποκλειστικά τη μεταφορά και παράδοση των αποστολών. Για οποιοδήποτε θέμα αφορά την παραγγελία σας πέρα αυτού παρακαλούμε όπως επικοινωνήσετε απευθείας με το ηλεκτρονικό κατάστημα από το οποίο πραγματοποιήσατε την αγορά.</t>
+  </si>
+  <si>
+    <t>&lt;greeting&gt;,
+Σας ευχαριστούμε πολύ για την επικοινωνία.
+Θα χρειαστεί να μας αναφέρετε τον 10ψήφιο αριθμό δέματος της Boxnow καθώς αυτός που έχετε αναγράψει δεν αντιστοιχεί σε κάποια αποστολή.</t>
+  </si>
+  <si>
+    <t>Σχόλια</t>
+  </si>
+  <si>
+    <t>Επικοινωνία με eshop</t>
+  </si>
+  <si>
+    <t>Λάθος 10ψηψιος</t>
+  </si>
+  <si>
+    <t>Χαμένο δέμα από Shein</t>
+  </si>
+  <si>
+    <t>&lt;greeting&gt;,
+Σας ευχαριστούμε πολύ για την επικοινωνία,
+Θα θέλαμε να σας ενημερώσουμε πως, το δέμα σας με αριθμό αποστολής &lt;parcel_id&gt; δυστυχώς δεν εντοπίζεται.
+Σας προτείνουμε να επικοινωνήσετε απευθείας με το Shein για περαιτέρω ενημέρωση και διευκρινίσεις.
+Παραμένουμε στη διάθεσή σας για οτιδήποτε άλλο χρειαστείτε.</t>
+  </si>
+  <si>
+    <t>&lt;greeting&gt;,
+Thank you very much for contacting us. 
+Your parcel is available for pick-up 48 hours from the moment it is delivered to locker. You can extend this time for 24 more hours via the website
+https://boxnow.gr/track
+We make sure to remind you of the receipt of your parcel with a message on your Mobile 1 and 2 days before this period expires!
+We remain at your disposal for anything else you may need.</t>
+  </si>
+  <si>
+    <t>&lt;greeting&gt;,
+Σας ευχαριστούμε πολύ για την επικοινωνία.
 Τα σχόλια σας -είτε θετικά είτε αρνητικά- είναι πάντα ευπρόσδεκτα και προωθούνται στο αρμόδιο τμήμα! Σας διαβεβαιώνουμε ότι καταβάλλουμε κάθε δυνατή προσπάθεια για την άψογη εξυπηρέτηση των πελατών μας.</t>
   </si>
   <si>
     <t>&lt;greeting&gt;,
 Thank you very much for contacting us.
-Your comments-whether positive or negative - are always welcome and forwarded to the relevant department! We assure you that we make every effort for the excellent service of our customers.</t>
-  </si>
-  <si>
-    <t>&lt;greeting&gt;,
-Σας ευχαριστούμε πολύ για την επικοινωνία.
-Θα θέλαμε να σας ενημερώσουμε ότι η εταιρεία μας αναλαμβάνει αποκλειστικά τη μεταφορά και παράδοση των αποστολών. Για οποιοδήποτε θέμα αφορά την παραγγελία σας πέρα αυτού παρακαλούμε όπως επικοινωνήσετε απευθείας με το ηλεκτρονικό κατάστημα από το οποίο πραγματοποιήσατε την αγορά.</t>
-  </si>
-  <si>
-    <t>&lt;greeting&gt;,
-Σας ευχαριστούμε πολύ για την επικοινωνία.
-Θα χρειαστεί να μας αναφέρετε τον 10ψήφιο αριθμό δέματος της Boxnow καθώς αυτός που έχετε αναγράψει δεν αντιστοιχεί σε κάποια αποστολή.</t>
-  </si>
-  <si>
-    <t>Σχόλια</t>
-  </si>
-  <si>
-    <t>Επικοινωνία με eshop</t>
-  </si>
-  <si>
-    <t>Λάθος 10ψηψιος</t>
+Your comments -whether positive or negative- are always welcome and forwarded to the relevant department! We assure you that we make every effort for the excellent service of our customers.</t>
+  </si>
+  <si>
+    <t>&lt;greeting&gt;,
+Thank you very much for contacting us.
+You will need to indicate the Boxnow 10-digit parcel number as the one you have entered does not correspond to a shipment.</t>
+  </si>
+  <si>
+    <t>&lt;greeting&gt;,
+Thank you very much for your feedback.,
+We would like to inform you that your parcel with shipping number &lt;parcel_id&gt; is unfortunately not located.
+We suggest you contact Shein directly for further information and clarification.
+We remain at your disposal for anything else you may need.</t>
+  </si>
+  <si>
+    <t>&lt;greeting&gt;,
+Thank you very much for contacting us.
+We would like to inform you that our Company undertakes exclusively the transportation and delivery of shipments. For any matter concerning your order beyond this please contact directly the online store from which you made the purchase.</t>
+  </si>
+  <si>
+    <t>Χαμένο δέμα από Vinted</t>
+  </si>
+  <si>
+    <t>&lt;greeting&gt;,
+Σας ευχαριστούμε πολύ για την επικοινωνία και λυπούμαστε ειλικρινά για το περιστατικό.
+Θα θέλαμε να σας ενημερώσουμε πως, το δέμα σας με αριθμό αποστολής &lt;parcel_id&gt; δυστυχώς δεν εντοπίζεται.
+Θα χρειαστεί να προωθήσετε  το αίτημα σας στην πλατφόρμα της Vinted ώστε να λάβετε περαιτέρω πληροφορίες .</t>
+  </si>
+  <si>
+    <t>&lt;greeting&gt;,
+Thank you very much for contacting us and we sincerely regret the incident.
+We would like to inform you that your parcel with shipping number &lt;parcel_id&gt; is unfortunately not located.
+You will need to forward your request to the Vinted platform to receive further information .</t>
+  </si>
+  <si>
+    <t>Λάθος email αποστολέα</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -891,6 +944,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <charset val="161"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="161"/>
@@ -1045,7 +1106,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1108,20 +1169,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1144,7 +1198,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1176,7 +1229,31 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1513,8 +1590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D004F91A-24E3-4E9F-946D-04712B9573A5}">
   <dimension ref="A1:G147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B113" sqref="B113"/>
+    <sheetView tabSelected="1" topLeftCell="B119" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E118" sqref="E118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1525,20 +1602,20 @@
     <col min="4" max="4" width="12.5" customWidth="1"/>
     <col min="5" max="5" width="86.75" style="17" customWidth="1"/>
     <col min="6" max="6" width="11.25" customWidth="1"/>
-    <col min="7" max="7" width="55.625" customWidth="1"/>
+    <col min="7" max="7" width="63.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="C1" t="s">
         <v>89</v>
       </c>
-      <c r="D1" s="32">
+      <c r="D1" s="30">
         <v>45757</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="21.75" customHeight="1"/>
     <row r="3" spans="1:7" ht="156.75">
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="29" t="s">
         <v>87</v>
       </c>
       <c r="C3" s="2"/>
@@ -1547,7 +1624,7 @@
         <v>88</v>
       </c>
       <c r="F3" s="2"/>
-      <c r="G3" s="45" t="s">
+      <c r="G3" s="41" t="s">
         <v>98</v>
       </c>
     </row>
@@ -1561,8 +1638,8 @@
       <c r="E5" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="38"/>
-      <c r="G5" s="53" t="s">
+      <c r="F5" s="35"/>
+      <c r="G5" s="49" t="s">
         <v>99</v>
       </c>
     </row>
@@ -1584,7 +1661,7 @@
         <v>14</v>
       </c>
       <c r="F7" s="2"/>
-      <c r="G7" s="53" t="s">
+      <c r="G7" s="49" t="s">
         <v>100</v>
       </c>
     </row>
@@ -1606,7 +1683,7 @@
         <v>15</v>
       </c>
       <c r="F9" s="2"/>
-      <c r="G9" s="53" t="s">
+      <c r="G9" s="49" t="s">
         <v>101</v>
       </c>
     </row>
@@ -1615,9 +1692,9 @@
       <c r="B10" s="7"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="34"/>
-    </row>
-    <row r="11" spans="1:7" ht="185.25">
+      <c r="E10" s="31"/>
+    </row>
+    <row r="11" spans="1:7" ht="171">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
         <v>70</v>
@@ -1628,7 +1705,7 @@
         <v>69</v>
       </c>
       <c r="F11" s="2"/>
-      <c r="G11" s="53" t="s">
+      <c r="G11" s="49" t="s">
         <v>102</v>
       </c>
     </row>
@@ -1650,7 +1727,7 @@
         <v>1</v>
       </c>
       <c r="F13" s="2"/>
-      <c r="G13" s="53" t="s">
+      <c r="G13" s="49" t="s">
         <v>103</v>
       </c>
     </row>
@@ -1672,7 +1749,7 @@
         <v>3</v>
       </c>
       <c r="F15" s="2"/>
-      <c r="G15" s="53" t="s">
+      <c r="G15" s="49" t="s">
         <v>104</v>
       </c>
     </row>
@@ -1694,7 +1771,7 @@
         <v>94</v>
       </c>
       <c r="F17" s="2"/>
-      <c r="G17" s="53" t="s">
+      <c r="G17" s="49" t="s">
         <v>105</v>
       </c>
     </row>
@@ -1705,7 +1782,7 @@
       <c r="D18" s="1"/>
       <c r="E18" s="14"/>
     </row>
-    <row r="19" spans="1:7" ht="213.75">
+    <row r="19" spans="1:7" ht="199.5">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
         <v>150</v>
@@ -1716,7 +1793,7 @@
         <v>91</v>
       </c>
       <c r="F19" s="2"/>
-      <c r="G19" s="53" t="s">
+      <c r="G19" s="49" t="s">
         <v>106</v>
       </c>
     </row>
@@ -1725,7 +1802,7 @@
       <c r="B20" s="7"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="34"/>
+      <c r="E20" s="31"/>
     </row>
     <row r="21" spans="1:7" ht="99.75">
       <c r="A21" s="1"/>
@@ -1737,8 +1814,8 @@
       <c r="E21" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F21" s="38"/>
-      <c r="G21" s="53" t="s">
+      <c r="F21" s="35"/>
+      <c r="G21" s="49" t="s">
         <v>107</v>
       </c>
     </row>
@@ -1760,7 +1837,7 @@
         <v>11</v>
       </c>
       <c r="F23" s="2"/>
-      <c r="G23" s="53" t="s">
+      <c r="G23" s="49" t="s">
         <v>108</v>
       </c>
     </row>
@@ -1771,18 +1848,18 @@
       <c r="D24" s="1"/>
       <c r="E24" s="15"/>
     </row>
-    <row r="25" spans="1:7" ht="114">
+    <row r="25" spans="1:7" ht="99.75">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C25" s="2"/>
-      <c r="D25" s="37"/>
+      <c r="D25" s="34"/>
       <c r="E25" s="16" t="s">
         <v>7</v>
       </c>
       <c r="F25" s="2"/>
-      <c r="G25" s="53" t="s">
+      <c r="G25" s="49" t="s">
         <v>109</v>
       </c>
     </row>
@@ -1790,8 +1867,8 @@
       <c r="A26" s="1"/>
       <c r="B26" s="7"/>
       <c r="C26" s="1"/>
-      <c r="D26" s="48"/>
-      <c r="E26" s="36"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="33"/>
     </row>
     <row r="27" spans="1:7" ht="114">
       <c r="A27" s="1"/>
@@ -1803,8 +1880,8 @@
       <c r="E27" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="F27" s="35"/>
-      <c r="G27" s="53" t="s">
+      <c r="F27" s="32"/>
+      <c r="G27" s="49" t="s">
         <v>110</v>
       </c>
     </row>
@@ -1816,7 +1893,7 @@
       <c r="E28" s="15"/>
       <c r="F28" s="8"/>
     </row>
-    <row r="29" spans="1:7" ht="228">
+    <row r="29" spans="1:7" ht="213.75">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
         <v>71</v>
@@ -1826,8 +1903,8 @@
       <c r="E29" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="F29" s="35"/>
-      <c r="G29" s="53" t="s">
+      <c r="F29" s="32"/>
+      <c r="G29" s="49" t="s">
         <v>142</v>
       </c>
     </row>
@@ -1846,23 +1923,23 @@
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
-      <c r="E31" s="39" t="s">
+      <c r="E31" s="36" t="s">
         <v>2</v>
       </c>
       <c r="F31" s="2"/>
-      <c r="G31" s="53" t="s">
+      <c r="G31" s="49" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="32" spans="1:7" s="52" customFormat="1">
-      <c r="A32" s="48"/>
-      <c r="B32" s="49"/>
-      <c r="C32" s="48"/>
-      <c r="D32" s="48"/>
-      <c r="E32" s="50"/>
-      <c r="F32" s="51"/>
-    </row>
-    <row r="33" spans="1:7" ht="142.5">
+    <row r="32" spans="1:7" s="48" customFormat="1">
+      <c r="A32" s="44"/>
+      <c r="B32" s="45"/>
+      <c r="C32" s="44"/>
+      <c r="D32" s="44"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="47"/>
+    </row>
+    <row r="33" spans="1:7" ht="128.25">
       <c r="A33" s="1"/>
       <c r="B33" s="5" t="s">
         <v>74</v>
@@ -1872,8 +1949,8 @@
       <c r="E33" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="F33" s="38"/>
-      <c r="G33" s="53" t="s">
+      <c r="F33" s="35"/>
+      <c r="G33" s="49" t="s">
         <v>111</v>
       </c>
     </row>
@@ -1895,7 +1972,7 @@
         <v>20</v>
       </c>
       <c r="F35" s="2"/>
-      <c r="G35" s="54" t="s">
+      <c r="G35" s="50" t="s">
         <v>112</v>
       </c>
     </row>
@@ -1917,7 +1994,7 @@
         <v>17</v>
       </c>
       <c r="F37" s="2"/>
-      <c r="G37" s="54" t="s">
+      <c r="G37" s="50" t="s">
         <v>113</v>
       </c>
     </row>
@@ -1939,7 +2016,7 @@
         <v>83</v>
       </c>
       <c r="F39" s="2"/>
-      <c r="G39" s="53" t="s">
+      <c r="G39" s="49" t="s">
         <v>149</v>
       </c>
     </row>
@@ -1948,7 +2025,7 @@
       <c r="B40" s="7"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
-      <c r="E40" s="34"/>
+      <c r="E40" s="31"/>
     </row>
     <row r="41" spans="1:7" ht="85.5">
       <c r="A41" s="1"/>
@@ -1960,8 +2037,8 @@
       <c r="E41" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="F41" s="38"/>
-      <c r="G41" s="53" t="s">
+      <c r="F41" s="35"/>
+      <c r="G41" s="49" t="s">
         <v>114</v>
       </c>
     </row>
@@ -1983,7 +2060,7 @@
         <v>95</v>
       </c>
       <c r="F43" s="2"/>
-      <c r="G43" s="53" t="s">
+      <c r="G43" s="49" t="s">
         <v>115</v>
       </c>
     </row>
@@ -2005,7 +2082,7 @@
         <v>13</v>
       </c>
       <c r="F45" s="2"/>
-      <c r="G45" s="53" t="s">
+      <c r="G45" s="49" t="s">
         <v>116</v>
       </c>
     </row>
@@ -2014,7 +2091,7 @@
       <c r="B46" s="7"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
-      <c r="E46" s="34"/>
+      <c r="E46" s="31"/>
     </row>
     <row r="47" spans="1:7" ht="171">
       <c r="A47" s="1"/>
@@ -2023,11 +2100,11 @@
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
-      <c r="E47" s="47" t="s">
+      <c r="E47" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="F47" s="38"/>
-      <c r="G47" s="53" t="s">
+      <c r="F47" s="35"/>
+      <c r="G47" s="49" t="s">
         <v>117</v>
       </c>
     </row>
@@ -2049,7 +2126,7 @@
         <v>152</v>
       </c>
       <c r="F49" s="2"/>
-      <c r="G49" s="53" t="s">
+      <c r="G49" s="49" t="s">
         <v>151</v>
       </c>
     </row>
@@ -2067,11 +2144,11 @@
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
-      <c r="E51" s="39" t="s">
+      <c r="E51" s="36" t="s">
         <v>9</v>
       </c>
       <c r="F51" s="2"/>
-      <c r="G51" s="53" t="s">
+      <c r="G51" s="49" t="s">
         <v>118</v>
       </c>
     </row>
@@ -2080,9 +2157,9 @@
       <c r="B52" s="7"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
-      <c r="E52" s="55"/>
-    </row>
-    <row r="53" spans="1:7" ht="85.5">
+      <c r="E52" s="51"/>
+    </row>
+    <row r="53" spans="1:7" ht="71.25">
       <c r="A53" s="1"/>
       <c r="B53" s="5" t="s">
         <v>77</v>
@@ -2093,7 +2170,7 @@
         <v>154</v>
       </c>
       <c r="F53" s="2"/>
-      <c r="G53" s="56" t="s">
+      <c r="G53" s="52" t="s">
         <v>119</v>
       </c>
     </row>
@@ -2102,9 +2179,9 @@
       <c r="B54" s="7"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
-      <c r="E54" s="34"/>
-    </row>
-    <row r="55" spans="1:7" ht="85.5">
+      <c r="E54" s="31"/>
+    </row>
+    <row r="55" spans="1:7" ht="71.25">
       <c r="A55" s="1"/>
       <c r="B55" s="5" t="s">
         <v>76</v>
@@ -2115,7 +2192,7 @@
         <v>92</v>
       </c>
       <c r="F55" s="2"/>
-      <c r="G55" s="56" t="s">
+      <c r="G55" s="52" t="s">
         <v>120</v>
       </c>
     </row>
@@ -2124,7 +2201,7 @@
       <c r="B56" s="7"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
-      <c r="E56" s="40"/>
+      <c r="E56" s="37"/>
     </row>
     <row r="57" spans="1:7" ht="85.5">
       <c r="A57" s="1"/>
@@ -2136,8 +2213,8 @@
       <c r="E57" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="F57" s="38"/>
-      <c r="G57" s="56" t="s">
+      <c r="F57" s="35"/>
+      <c r="G57" s="52" t="s">
         <v>121</v>
       </c>
     </row>
@@ -2147,7 +2224,7 @@
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="27"/>
-      <c r="G58" s="46"/>
+      <c r="G58" s="42"/>
     </row>
     <row r="59" spans="1:7" s="3" customFormat="1" ht="99.75">
       <c r="A59" s="20"/>
@@ -2160,7 +2237,7 @@
         <v>8</v>
       </c>
       <c r="F59" s="2"/>
-      <c r="G59" s="56" t="s">
+      <c r="G59" s="52" t="s">
         <v>122</v>
       </c>
     </row>
@@ -2168,10 +2245,10 @@
       <c r="A60" s="25"/>
       <c r="B60" s="26"/>
       <c r="C60" s="25"/>
-      <c r="D60" s="42"/>
-      <c r="E60" s="40"/>
-    </row>
-    <row r="61" spans="1:7" ht="171">
+      <c r="D60" s="39"/>
+      <c r="E60" s="37"/>
+    </row>
+    <row r="61" spans="1:7" ht="156.75">
       <c r="A61" s="1"/>
       <c r="B61" s="5" t="s">
         <v>42</v>
@@ -2181,8 +2258,8 @@
       <c r="E61" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="F61" s="38"/>
-      <c r="G61" s="56" t="s">
+      <c r="F61" s="35"/>
+      <c r="G61" s="52" t="s">
         <v>123</v>
       </c>
     </row>
@@ -2204,7 +2281,7 @@
         <v>86</v>
       </c>
       <c r="F63" s="2"/>
-      <c r="G63" s="56" t="s">
+      <c r="G63" s="52" t="s">
         <v>124</v>
       </c>
     </row>
@@ -2215,7 +2292,7 @@
       <c r="D64" s="12"/>
       <c r="E64" s="14"/>
     </row>
-    <row r="65" spans="1:7" ht="128.25">
+    <row r="65" spans="1:7" ht="114">
       <c r="A65" s="1"/>
       <c r="B65" s="5" t="s">
         <v>50</v>
@@ -2226,7 +2303,7 @@
         <v>10</v>
       </c>
       <c r="F65" s="2"/>
-      <c r="G65" s="56" t="s">
+      <c r="G65" s="52" t="s">
         <v>125</v>
       </c>
     </row>
@@ -2248,7 +2325,7 @@
         <v>90</v>
       </c>
       <c r="F67" s="2"/>
-      <c r="G67" s="53" t="s">
+      <c r="G67" s="49" t="s">
         <v>126</v>
       </c>
     </row>
@@ -2257,7 +2334,7 @@
       <c r="B68" s="7"/>
       <c r="C68" s="1"/>
       <c r="D68" s="12"/>
-      <c r="E68" s="34"/>
+      <c r="E68" s="31"/>
     </row>
     <row r="69" spans="1:7" ht="205.5" customHeight="1">
       <c r="A69" s="1"/>
@@ -2269,8 +2346,8 @@
       <c r="E69" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="F69" s="38"/>
-      <c r="G69" s="53" t="s">
+      <c r="F69" s="35"/>
+      <c r="G69" s="49" t="s">
         <v>127</v>
       </c>
     </row>
@@ -2279,7 +2356,7 @@
       <c r="B70" s="7"/>
       <c r="C70" s="1"/>
       <c r="D70" s="12"/>
-      <c r="E70" s="40"/>
+      <c r="E70" s="37"/>
     </row>
     <row r="71" spans="1:7" ht="127.5" customHeight="1">
       <c r="A71" s="1"/>
@@ -2291,8 +2368,8 @@
       <c r="E71" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="F71" s="38"/>
-      <c r="G71" s="53" t="s">
+      <c r="F71" s="35"/>
+      <c r="G71" s="49" t="s">
         <v>128</v>
       </c>
     </row>
@@ -2301,7 +2378,7 @@
       <c r="B72" s="7"/>
       <c r="C72" s="1"/>
       <c r="D72" s="12"/>
-      <c r="E72" s="40"/>
+      <c r="E72" s="37"/>
     </row>
     <row r="73" spans="1:7" ht="149.25" customHeight="1">
       <c r="A73" s="1"/>
@@ -2313,8 +2390,8 @@
       <c r="E73" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="F73" s="38"/>
-      <c r="G73" s="45" t="s">
+      <c r="F73" s="35"/>
+      <c r="G73" s="41" t="s">
         <v>129</v>
       </c>
     </row>
@@ -2336,7 +2413,7 @@
         <v>67</v>
       </c>
       <c r="F75" s="2"/>
-      <c r="G75" s="45" t="s">
+      <c r="G75" s="41" t="s">
         <v>130</v>
       </c>
     </row>
@@ -2358,7 +2435,7 @@
         <v>5</v>
       </c>
       <c r="F77" s="2"/>
-      <c r="G77" s="45" t="s">
+      <c r="G77" s="41" t="s">
         <v>131</v>
       </c>
     </row>
@@ -2367,7 +2444,7 @@
       <c r="B78" s="7"/>
       <c r="C78" s="1"/>
       <c r="D78" s="12"/>
-      <c r="E78" s="34"/>
+      <c r="E78" s="31"/>
     </row>
     <row r="79" spans="1:7" ht="114">
       <c r="A79" s="1"/>
@@ -2379,8 +2456,8 @@
       <c r="E79" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="F79" s="38"/>
-      <c r="G79" s="53" t="s">
+      <c r="F79" s="35"/>
+      <c r="G79" s="49" t="s">
         <v>132</v>
       </c>
     </row>
@@ -2389,9 +2466,9 @@
       <c r="B80" s="7"/>
       <c r="C80" s="1"/>
       <c r="D80" s="12"/>
-      <c r="E80" s="40"/>
-    </row>
-    <row r="81" spans="1:7" ht="285">
+      <c r="E80" s="37"/>
+    </row>
+    <row r="81" spans="1:7" ht="270.75">
       <c r="A81" s="1"/>
       <c r="B81" s="5" t="s">
         <v>53</v>
@@ -2401,8 +2478,8 @@
       <c r="E81" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="F81" s="38"/>
-      <c r="G81" s="53" t="s">
+      <c r="F81" s="35"/>
+      <c r="G81" s="49" t="s">
         <v>147</v>
       </c>
     </row>
@@ -2411,7 +2488,7 @@
       <c r="B82" s="7"/>
       <c r="C82" s="1"/>
       <c r="D82" s="12"/>
-      <c r="E82" s="40"/>
+      <c r="E82" s="37"/>
     </row>
     <row r="83" spans="1:7" ht="242.25">
       <c r="A83" s="1"/>
@@ -2423,8 +2500,8 @@
       <c r="E83" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="F83" s="38"/>
-      <c r="G83" s="53" t="s">
+      <c r="F83" s="35"/>
+      <c r="G83" s="49" t="s">
         <v>148</v>
       </c>
     </row>
@@ -2446,7 +2523,7 @@
         <v>1</v>
       </c>
       <c r="F85" s="2"/>
-      <c r="G85" s="53" t="s">
+      <c r="G85" s="49" t="s">
         <v>103</v>
       </c>
     </row>
@@ -2468,7 +2545,7 @@
         <v>4</v>
       </c>
       <c r="F87" s="2"/>
-      <c r="G87" s="45" t="s">
+      <c r="G87" s="41" t="s">
         <v>133</v>
       </c>
     </row>
@@ -2477,7 +2554,7 @@
       <c r="B88" s="7"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
-      <c r="E88" s="34"/>
+      <c r="E88" s="31"/>
     </row>
     <row r="89" spans="1:7" ht="99.75">
       <c r="A89" s="1"/>
@@ -2489,8 +2566,8 @@
       <c r="E89" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F89" s="38"/>
-      <c r="G89" s="45" t="s">
+      <c r="F89" s="35"/>
+      <c r="G89" s="41" t="s">
         <v>134</v>
       </c>
     </row>
@@ -2499,7 +2576,7 @@
       <c r="B90" s="7"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
-      <c r="E90" s="40"/>
+      <c r="E90" s="37"/>
     </row>
     <row r="91" spans="1:7" ht="99.75">
       <c r="A91" s="1"/>
@@ -2511,8 +2588,8 @@
       <c r="E91" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="F91" s="38"/>
-      <c r="G91" s="45" t="s">
+      <c r="F91" s="35"/>
+      <c r="G91" s="41" t="s">
         <v>135</v>
       </c>
     </row>
@@ -2534,7 +2611,7 @@
         <v>0</v>
       </c>
       <c r="F93" s="2"/>
-      <c r="G93" s="45" t="s">
+      <c r="G93" s="41" t="s">
         <v>136</v>
       </c>
     </row>
@@ -2556,7 +2633,7 @@
         <v>41</v>
       </c>
       <c r="F95" s="2"/>
-      <c r="G95" s="45" t="s">
+      <c r="G95" s="41" t="s">
         <v>144</v>
       </c>
     </row>
@@ -2564,7 +2641,7 @@
       <c r="A96" s="1"/>
       <c r="B96" s="7"/>
       <c r="C96" s="1"/>
-      <c r="D96" s="43"/>
+      <c r="D96" s="40"/>
       <c r="E96" s="14"/>
     </row>
     <row r="97" spans="1:7" ht="132" customHeight="1">
@@ -2574,11 +2651,11 @@
       </c>
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
-      <c r="E97" s="41" t="s">
+      <c r="E97" s="38" t="s">
         <v>81</v>
       </c>
       <c r="F97" s="2"/>
-      <c r="G97" s="53" t="s">
+      <c r="G97" s="49" t="s">
         <v>137</v>
       </c>
     </row>
@@ -2600,7 +2677,7 @@
         <v>82</v>
       </c>
       <c r="F99" s="2"/>
-      <c r="G99" s="53" t="s">
+      <c r="G99" s="49" t="s">
         <v>145</v>
       </c>
     </row>
@@ -2622,7 +2699,7 @@
         <v>21</v>
       </c>
       <c r="F101" s="2"/>
-      <c r="G101" s="53" t="s">
+      <c r="G101" s="49" t="s">
         <v>138</v>
       </c>
     </row>
@@ -2644,7 +2721,7 @@
         <v>65</v>
       </c>
       <c r="F103" s="2"/>
-      <c r="G103" s="53" t="s">
+      <c r="G103" s="49" t="s">
         <v>139</v>
       </c>
     </row>
@@ -2655,7 +2732,7 @@
       <c r="D104" s="1"/>
       <c r="E104" s="14"/>
     </row>
-    <row r="105" spans="1:7" ht="199.5">
+    <row r="105" spans="1:7" ht="185.25">
       <c r="A105" s="1"/>
       <c r="B105" s="5" t="s">
         <v>36</v>
@@ -2666,21 +2743,18 @@
         <v>79</v>
       </c>
       <c r="F105" s="2"/>
-      <c r="G105" s="53" t="s">
+      <c r="G105" s="41" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="106" spans="1:7">
-      <c r="A106" s="4"/>
-      <c r="B106" s="28"/>
-      <c r="C106" s="29"/>
-      <c r="D106" s="29"/>
-      <c r="E106" s="30"/>
-      <c r="F106" s="44"/>
-      <c r="G106" s="29"/>
+    <row r="106" spans="1:7" s="48" customFormat="1">
+      <c r="A106" s="44"/>
+      <c r="B106" s="54"/>
+      <c r="E106" s="55"/>
+      <c r="F106" s="56"/>
     </row>
     <row r="107" spans="1:7" ht="171" customHeight="1">
-      <c r="B107" s="57" t="s">
+      <c r="B107" s="53" t="s">
         <v>155</v>
       </c>
       <c r="C107" s="2"/>
@@ -2688,10 +2762,13 @@
       <c r="E107" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="F107" s="33"/>
+      <c r="F107" s="2"/>
+      <c r="G107" s="49" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="108" spans="1:7">
-      <c r="A108" s="3"/>
+      <c r="A108" s="4"/>
       <c r="B108" s="7"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
@@ -2699,20 +2776,20 @@
     </row>
     <row r="109" spans="1:7" ht="171" customHeight="1">
       <c r="B109" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
       <c r="E109" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="F109" s="33"/>
-      <c r="G109" s="54" t="s">
-        <v>158</v>
+        <v>165</v>
+      </c>
+      <c r="F109" s="2"/>
+      <c r="G109" s="41" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="110" spans="1:7">
-      <c r="A110" s="3"/>
+      <c r="A110" s="4"/>
       <c r="B110" s="7"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
@@ -2720,18 +2797,20 @@
     </row>
     <row r="111" spans="1:7" ht="171" customHeight="1">
       <c r="B111" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
       <c r="E111" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="F111" s="33"/>
-      <c r="G111" s="58"/>
+        <v>157</v>
+      </c>
+      <c r="F111" s="2"/>
+      <c r="G111" s="41" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="112" spans="1:7">
-      <c r="A112" s="3"/>
+      <c r="A112" s="4"/>
       <c r="B112" s="7"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -2739,52 +2818,82 @@
     </row>
     <row r="113" spans="1:7" ht="171" customHeight="1">
       <c r="B113" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
       <c r="E113" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="F113" s="33"/>
-      <c r="G113" s="58"/>
+        <v>158</v>
+      </c>
+      <c r="F113" s="2"/>
+      <c r="G113" s="41" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114" s="1"/>
     </row>
     <row r="115" spans="1:7" ht="171" customHeight="1">
-      <c r="B115" s="5"/>
+      <c r="B115" s="5" t="s">
+        <v>162</v>
+      </c>
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
-      <c r="E115" s="18"/>
-    </row>
-    <row r="116" spans="1:7">
-      <c r="A116" s="3"/>
-      <c r="B116" s="7"/>
-      <c r="C116" s="1"/>
-      <c r="D116" s="1"/>
-      <c r="E116" s="19"/>
+      <c r="E115" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="F115" s="2"/>
+      <c r="G115" s="41" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" s="48" customFormat="1">
+      <c r="A116" s="44"/>
+      <c r="B116" s="45"/>
+      <c r="C116" s="44"/>
+      <c r="D116" s="44"/>
+      <c r="E116" s="60"/>
     </row>
     <row r="117" spans="1:7" ht="171" customHeight="1">
-      <c r="B117" s="5"/>
+      <c r="B117" s="5" t="s">
+        <v>170</v>
+      </c>
       <c r="C117" s="2"/>
       <c r="D117" s="2"/>
-      <c r="E117" s="18"/>
-    </row>
-    <row r="118" spans="1:7" ht="18.75" customHeight="1">
-      <c r="B118" s="7"/>
-      <c r="C118" s="1"/>
-      <c r="D118" s="1"/>
-      <c r="E118" s="19"/>
+      <c r="E117" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="F117" s="2"/>
+      <c r="G117" s="41" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" s="61" customFormat="1" ht="18.75" customHeight="1">
+      <c r="B118" s="62"/>
+      <c r="C118" s="63"/>
+      <c r="D118" s="63"/>
+      <c r="E118" s="64"/>
     </row>
     <row r="119" spans="1:7" ht="171" customHeight="1">
-      <c r="B119" s="5"/>
+      <c r="B119" s="5" t="s">
+        <v>173</v>
+      </c>
       <c r="C119" s="2"/>
       <c r="D119" s="2"/>
-      <c r="E119" s="18"/>
-    </row>
-    <row r="120" spans="1:7">
-      <c r="B120" s="7"/>
-      <c r="C120" s="1"/>
-      <c r="D120" s="1"/>
-      <c r="E120" s="19"/>
+      <c r="E119" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="F119" s="2"/>
+      <c r="G119" s="41" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" s="28" customFormat="1">
+      <c r="A120" s="58"/>
+      <c r="B120" s="57"/>
+      <c r="C120" s="58"/>
+      <c r="D120" s="58"/>
+      <c r="E120" s="59"/>
     </row>
     <row r="121" spans="1:7" ht="171" customHeight="1">
       <c r="B121" s="5"/>

--- a/email_templates.xlsx
+++ b/email_templates.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thanos\Desktop\dist\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thanos\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{853B782D-FAFA-45B7-936D-B648828CA44F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B48D9C4-E65A-455D-A214-4AB56AF850D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2865" yWindow="1485" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Φύλλο1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="180">
   <si>
     <t>TEMU</t>
   </si>
@@ -1600,10 +1600,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G125"/>
+  <dimension ref="A1:G124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B121" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B136" sqref="B136"/>
+    <sheetView tabSelected="1" topLeftCell="B34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2043,7 +2043,9 @@
         <v>50</v>
       </c>
       <c r="F39" s="42"/>
-      <c r="G39" s="37"/>
+      <c r="G39" s="37" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="40" spans="1:7" s="13" customFormat="1">
       <c r="A40" s="25"/>
@@ -2786,132 +2788,132 @@
     <row r="110" spans="1:7">
       <c r="A110"/>
     </row>
-    <row r="112" spans="1:7" ht="128.25">
-      <c r="A112"/>
-      <c r="B112" s="52" t="s">
+    <row r="111" spans="1:7" ht="128.25">
+      <c r="A111"/>
+      <c r="B111" s="52" t="s">
         <v>146</v>
       </c>
-      <c r="C112" s="9"/>
-      <c r="D112" s="9"/>
-      <c r="E112" s="6" t="s">
+      <c r="C111" s="9"/>
+      <c r="D111" s="9"/>
+      <c r="E111" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="F112" s="9"/>
-      <c r="G112" s="23" t="s">
+      <c r="F111" s="9"/>
+      <c r="G111" s="23" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="114" spans="1:7" ht="85.5">
-      <c r="A114"/>
-      <c r="B114" s="3" t="s">
+    <row r="113" spans="1:7" ht="85.5">
+      <c r="A113"/>
+      <c r="B113" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="C114" s="9"/>
-      <c r="D114" s="9"/>
-      <c r="E114" s="6" t="s">
+      <c r="C113" s="9"/>
+      <c r="D113" s="9"/>
+      <c r="E113" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="F114" s="9"/>
-      <c r="G114" s="23" t="s">
+      <c r="F113" s="9"/>
+      <c r="G113" s="23" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="115" spans="1:7" s="54" customFormat="1">
-      <c r="B115" s="55"/>
-      <c r="C115" s="56"/>
-      <c r="D115" s="56"/>
-      <c r="E115" s="57"/>
-      <c r="F115" s="56"/>
-      <c r="G115" s="57"/>
-    </row>
-    <row r="116" spans="1:7" ht="142.5">
-      <c r="A116"/>
-      <c r="B116" s="18" t="s">
+    <row r="114" spans="1:7" s="54" customFormat="1">
+      <c r="B114" s="55"/>
+      <c r="C114" s="56"/>
+      <c r="D114" s="56"/>
+      <c r="E114" s="57"/>
+      <c r="F114" s="56"/>
+      <c r="G114" s="57"/>
+    </row>
+    <row r="115" spans="1:7" ht="142.5">
+      <c r="A115"/>
+      <c r="B115" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="C116" s="9"/>
-      <c r="D116" s="9"/>
-      <c r="E116" s="6" t="s">
+      <c r="C115" s="9"/>
+      <c r="D115" s="9"/>
+      <c r="E115" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="F116" s="9"/>
-      <c r="G116" s="23" t="s">
+      <c r="F115" s="9"/>
+      <c r="G115" s="23" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="118" spans="1:7" ht="85.5">
+    <row r="117" spans="1:7" ht="85.5">
+      <c r="A117"/>
+      <c r="B117" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="C117" s="9"/>
+      <c r="D117" s="9"/>
+      <c r="E117" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="F117" s="9"/>
+      <c r="G117" s="23" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
       <c r="A118"/>
-      <c r="B118" s="18" t="s">
-        <v>152</v>
-      </c>
-      <c r="C118" s="9"/>
-      <c r="D118" s="9"/>
-      <c r="E118" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="F118" s="9"/>
-      <c r="G118" s="23" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7">
+    </row>
+    <row r="119" spans="1:7" ht="185.25">
       <c r="A119"/>
-    </row>
-    <row r="120" spans="1:7" ht="185.25">
+      <c r="B119" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="C119" s="9"/>
+      <c r="D119" s="9"/>
+      <c r="E119" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="F119" s="9"/>
+      <c r="G119" s="23" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
       <c r="A120"/>
-      <c r="B120" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="C120" s="9"/>
-      <c r="D120" s="9"/>
-      <c r="E120" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="F120" s="9"/>
-      <c r="G120" s="23" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7">
+    </row>
+    <row r="121" spans="1:7" ht="142.5">
       <c r="A121"/>
-    </row>
-    <row r="122" spans="1:7" ht="142.5">
-      <c r="A122"/>
-      <c r="B122" s="18" t="s">
+      <c r="B121" s="18" t="s">
         <v>158</v>
       </c>
-      <c r="C122" s="9"/>
-      <c r="D122" s="9"/>
-      <c r="E122" s="6" t="s">
+      <c r="C121" s="9"/>
+      <c r="D121" s="9"/>
+      <c r="E121" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="F122" s="9"/>
-      <c r="G122" s="23" t="s">
+      <c r="F121" s="9"/>
+      <c r="G121" s="23" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="124" spans="1:7" ht="142.5">
-      <c r="A124"/>
-      <c r="B124" s="3" t="s">
+    <row r="123" spans="1:7" ht="142.5">
+      <c r="A123"/>
+      <c r="B123" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="C124" s="9"/>
-      <c r="D124" s="9"/>
-      <c r="E124" s="6" t="s">
+      <c r="C123" s="9"/>
+      <c r="D123" s="9"/>
+      <c r="E123" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="F124" s="9"/>
-      <c r="G124" s="23" t="s">
+      <c r="F123" s="9"/>
+      <c r="G123" s="23" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="125" spans="1:7" s="17" customFormat="1">
-      <c r="B125" s="53"/>
-      <c r="C125" s="40"/>
-      <c r="D125" s="40"/>
-      <c r="E125" s="40"/>
-      <c r="F125" s="40"/>
-      <c r="G125" s="40"/>
+    <row r="124" spans="1:7" s="17" customFormat="1">
+      <c r="B124" s="53"/>
+      <c r="C124" s="40"/>
+      <c r="D124" s="40"/>
+      <c r="E124" s="40"/>
+      <c r="F124" s="40"/>
+      <c r="G124" s="40"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/email_templates.xlsx
+++ b/email_templates.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thanos\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thanos\Desktop\dist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B48D9C4-E65A-455D-A214-4AB56AF850D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F57EB094-EA68-44B9-B4EB-358F290C5095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="179">
   <si>
     <t>TEMU</t>
   </si>
@@ -395,11 +395,6 @@
     <t xml:space="preserve">&lt;greeting&gt;,
 Σας ευχαριστούμε πολύ για την επικοινωνία.
 Παρακαλούμε όπως προωθήσετε το αίτημα σας στο αρμόδιο μας τμήμα, ict@boxnow.gr    </t>
-  </si>
-  <si>
-    <t>Good Morning Good Evening,
-Thank you very much for contacting us.
-Please forward your request to our relevant department, ict@boxnow.gr</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;greeting&gt;,
@@ -880,9 +875,6 @@
 Θα θέλαμε να σας ενημερώσουμε πως ο αριθμός δέματος &lt;parcel_id&gt; έχει ακυρωθεί κατόπιν αιτήματος σας και θα λάβετε 6ψήφιο κωδικό όταν ολοκληρωθεί για να το παραλάβετε από τη θυρίδα που το τοποθετήσατε.</t>
   </si>
   <si>
-    <t xml:space="preserve">   </t>
-  </si>
-  <si>
     <t>Επικοινωνία με partners@boxnow.gr</t>
   </si>
   <si>
@@ -926,24 +918,21 @@
   </si>
   <si>
     <t>Φθορά</t>
+  </si>
+  <si>
+    <t>&lt;greeting&gt;,
+Thank you very much for contacting us.
+Please forward your request to our relevant department, ict@boxnow.gr</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <charset val="161"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="161"/>
@@ -1113,7 +1102,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1123,9 +1112,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1172,7 +1158,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1192,28 +1178,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1244,14 +1221,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1260,10 +1231,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1600,35 +1571,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G124"/>
+  <dimension ref="A1:G130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+    <sheetView tabSelected="1" topLeftCell="A120" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B136" sqref="B136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="4.5" style="28" customWidth="1"/>
-    <col min="2" max="2" width="48.625" style="30" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.25" style="38" customWidth="1"/>
-    <col min="4" max="4" width="12.5" style="38" customWidth="1"/>
-    <col min="5" max="5" width="86.75" style="38" customWidth="1"/>
-    <col min="6" max="6" width="11.25" style="38" customWidth="1"/>
-    <col min="7" max="7" width="63.375" style="38" customWidth="1"/>
+    <col min="1" max="1" width="4.5" style="27" customWidth="1"/>
+    <col min="2" max="2" width="48.625" style="29" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.25" style="35" customWidth="1"/>
+    <col min="4" max="4" width="12.5" style="35" customWidth="1"/>
+    <col min="5" max="5" width="86.75" style="35" customWidth="1"/>
+    <col min="6" max="6" width="11.25" style="35" customWidth="1"/>
+    <col min="7" max="7" width="63.375" style="35" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="156.75" customHeight="1">
       <c r="A1"/>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="6" t="s">
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="9"/>
-      <c r="G1" s="23" t="s">
+      <c r="F1" s="8"/>
+      <c r="G1" s="22" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1636,1242 +1607,1193 @@
       <c r="A2"/>
     </row>
     <row r="3" spans="1:7" ht="114" customHeight="1">
-      <c r="A3" s="25"/>
+      <c r="A3" s="24"/>
       <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="6" t="s">
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="42"/>
-      <c r="G3" s="23" t="s">
+      <c r="F3" s="38"/>
+      <c r="G3" s="22" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="25"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
+      <c r="A4" s="24"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
     </row>
     <row r="5" spans="1:7" ht="120" customHeight="1">
-      <c r="A5" s="25"/>
+      <c r="A5" s="24"/>
       <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="8" t="s">
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="9"/>
-      <c r="G5" s="23" t="s">
+      <c r="F5" s="8"/>
+      <c r="G5" s="22" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="25"/>
-      <c r="B6" s="26"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="27"/>
+      <c r="A6" s="24"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="26"/>
     </row>
     <row r="7" spans="1:7" ht="128.25">
-      <c r="A7" s="25"/>
+      <c r="A7" s="24"/>
       <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="6" t="s">
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="23" t="s">
+      <c r="F7" s="8"/>
+      <c r="G7" s="22" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="25"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="29"/>
+      <c r="A8" s="24"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="28"/>
     </row>
     <row r="9" spans="1:7" ht="156.75" customHeight="1">
-      <c r="A9" s="25"/>
+      <c r="A9" s="24"/>
       <c r="B9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="8" t="s">
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="23" t="s">
+      <c r="F9" s="8"/>
+      <c r="G9" s="22" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="25"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="29"/>
+      <c r="A10" s="24"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="28"/>
     </row>
     <row r="11" spans="1:7" ht="156.75" customHeight="1">
-      <c r="A11" s="25"/>
+      <c r="A11" s="24"/>
       <c r="B11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="8" t="s">
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="9"/>
-      <c r="G11" s="23" t="s">
+      <c r="F11" s="8"/>
+      <c r="G11" s="22" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="25"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="27"/>
+      <c r="A12" s="24"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="26"/>
     </row>
     <row r="13" spans="1:7" ht="99.75" customHeight="1">
-      <c r="A13" s="25"/>
+      <c r="A13" s="24"/>
       <c r="B13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="6" t="s">
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F13" s="42"/>
-      <c r="G13" s="23" t="s">
+      <c r="F13" s="38"/>
+      <c r="G13" s="22" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="25"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="16"/>
+      <c r="A14" s="24"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="15"/>
     </row>
     <row r="15" spans="1:7" ht="169.5" customHeight="1">
-      <c r="A15" s="25"/>
+      <c r="A15" s="24"/>
       <c r="B15" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="F15" s="9"/>
-      <c r="G15" s="23" t="s">
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F15" s="8"/>
+      <c r="G15" s="22" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="25"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="7"/>
-      <c r="G16" s="41"/>
+      <c r="A16" s="24"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="6"/>
+      <c r="G16" s="37"/>
     </row>
     <row r="17" spans="1:7" ht="159" customHeight="1">
-      <c r="A17" s="25"/>
+      <c r="A17" s="24"/>
       <c r="B17" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="F17" s="9"/>
-      <c r="G17" s="23" t="s">
+      <c r="C17" s="8"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F17" s="8"/>
+      <c r="G17" s="22" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="25"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="19"/>
+      <c r="A18" s="24"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="18"/>
     </row>
     <row r="19" spans="1:7" ht="172.5" customHeight="1">
-      <c r="A19" s="25"/>
+      <c r="A19" s="24"/>
       <c r="B19" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="8" t="s">
+      <c r="C19" s="8"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F19" s="6"/>
-      <c r="G19" s="23" t="s">
+      <c r="F19" s="5"/>
+      <c r="G19" s="22" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="25"/>
-      <c r="B20" s="26"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="41"/>
+      <c r="A20" s="24"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="37"/>
     </row>
     <row r="21" spans="1:7" ht="213.75" customHeight="1">
-      <c r="A21" s="25"/>
+      <c r="A21" s="24"/>
       <c r="B21" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="8" t="s">
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F21" s="6"/>
-      <c r="G21" s="23" t="s">
+      <c r="F21" s="5"/>
+      <c r="G21" s="22" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="25"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="41"/>
+      <c r="A22" s="24"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="37"/>
     </row>
     <row r="23" spans="1:7" ht="128.25" customHeight="1">
-      <c r="A23" s="25"/>
+      <c r="A23" s="24"/>
       <c r="B23" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="6" t="s">
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F23" s="42"/>
-      <c r="G23" s="23" t="s">
+      <c r="F23" s="38"/>
+      <c r="G23" s="22" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="25"/>
-      <c r="B24" s="26"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="16"/>
+      <c r="A24" s="24"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="15"/>
     </row>
     <row r="25" spans="1:7" ht="128.25" customHeight="1">
-      <c r="A25" s="25"/>
+      <c r="A25" s="24"/>
       <c r="B25" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="F25" s="9"/>
-      <c r="G25" s="36" t="s">
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="F25" s="8"/>
+      <c r="G25" s="33" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="25"/>
-      <c r="B26" s="26"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="29"/>
+      <c r="A26" s="24"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="28"/>
     </row>
     <row r="27" spans="1:7" ht="114" customHeight="1">
-      <c r="A27" s="25"/>
+      <c r="A27" s="24"/>
       <c r="B27" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="6" t="s">
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F27" s="9"/>
-      <c r="G27" s="23" t="s">
+      <c r="F27" s="8"/>
+      <c r="G27" s="22" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="25"/>
-      <c r="B28" s="26"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="27"/>
+      <c r="A28" s="24"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="26"/>
     </row>
     <row r="29" spans="1:7" ht="128.25" customHeight="1">
-      <c r="A29" s="25"/>
+      <c r="A29" s="24"/>
       <c r="B29" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="F29" s="42"/>
-      <c r="G29" s="23" t="s">
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="F29" s="38"/>
+      <c r="G29" s="22" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="25"/>
-      <c r="B30" s="26"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="16"/>
+      <c r="A30" s="24"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="15"/>
     </row>
     <row r="31" spans="1:7" ht="227.25" customHeight="1">
-      <c r="A31" s="25"/>
+      <c r="A31" s="24"/>
       <c r="B31" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="6" t="s">
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F31" s="9"/>
-      <c r="G31" s="23" t="s">
+      <c r="F31" s="8"/>
+      <c r="G31" s="22" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="25"/>
-      <c r="B32" s="26"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="27"/>
+      <c r="A32" s="24"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="26"/>
     </row>
     <row r="33" spans="1:7" ht="156.75" customHeight="1">
-      <c r="A33" s="25"/>
+      <c r="A33" s="24"/>
       <c r="B33" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="24" t="s">
-        <v>177</v>
-      </c>
-      <c r="F33" s="42"/>
-      <c r="G33" s="23" t="s">
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="F33" s="38"/>
+      <c r="G33" s="22" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="25"/>
-      <c r="B34" s="26"/>
-      <c r="C34" s="31"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="16"/>
+      <c r="A34" s="24"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="15"/>
     </row>
     <row r="35" spans="1:7" ht="143.25" customHeight="1">
       <c r="A35" s="2"/>
       <c r="B35" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="20" t="s">
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="F35" s="9"/>
-      <c r="G35" s="23" t="s">
+      <c r="F35" s="8"/>
+      <c r="G35" s="22" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="25"/>
-      <c r="B36" s="26"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="29"/>
+      <c r="A36" s="24"/>
+      <c r="B36" s="25"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="28"/>
     </row>
     <row r="37" spans="1:7" ht="141" customHeight="1">
-      <c r="A37" s="25"/>
+      <c r="A37" s="24"/>
       <c r="B37" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="F37" s="9"/>
-      <c r="G37" s="37" t="s">
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="F37" s="8"/>
+      <c r="G37" s="34" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="25"/>
-      <c r="B38" s="26"/>
-      <c r="C38" s="31"/>
-      <c r="D38" s="31"/>
-      <c r="E38" s="27"/>
+      <c r="A38" s="24"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="26"/>
     </row>
     <row r="39" spans="1:7" ht="159.75" customHeight="1">
-      <c r="A39" s="25"/>
+      <c r="A39" s="24"/>
       <c r="B39" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="6" t="s">
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F39" s="42"/>
-      <c r="G39" s="37" t="s">
+      <c r="F39" s="38"/>
+      <c r="G39" s="34" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="1:7" s="13" customFormat="1">
-      <c r="A40" s="25"/>
-      <c r="B40" s="26"/>
-      <c r="C40" s="31"/>
-      <c r="D40" s="31"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="45"/>
-      <c r="G40" s="38"/>
+    <row r="40" spans="1:7" s="12" customFormat="1">
+      <c r="A40" s="24"/>
+      <c r="B40" s="25"/>
+      <c r="C40" s="30"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="41"/>
+      <c r="G40" s="35"/>
     </row>
     <row r="41" spans="1:7" s="1" customFormat="1" ht="148.5" customHeight="1">
-      <c r="A41" s="10"/>
-      <c r="B41" s="11" t="s">
+      <c r="A41" s="9"/>
+      <c r="B41" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C41" s="44"/>
-      <c r="D41" s="44"/>
-      <c r="E41" s="12" t="s">
+      <c r="C41" s="40"/>
+      <c r="D41" s="40"/>
+      <c r="E41" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="F41" s="9"/>
-      <c r="G41" s="37" t="s">
+      <c r="F41" s="8"/>
+      <c r="G41" s="34" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="14"/>
-      <c r="B42" s="15"/>
-      <c r="C42" s="46"/>
-      <c r="D42" s="47"/>
-      <c r="E42" s="21"/>
+      <c r="A42" s="13"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="42"/>
+      <c r="D42" s="43"/>
+      <c r="E42" s="20"/>
     </row>
     <row r="43" spans="1:7" ht="156.75" customHeight="1">
-      <c r="A43" s="25"/>
+      <c r="A43" s="24"/>
       <c r="B43" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="F43" s="42"/>
-      <c r="G43" s="37" t="s">
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F43" s="38"/>
+      <c r="G43" s="34" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="25"/>
-      <c r="B44" s="26"/>
-      <c r="C44" s="31"/>
-      <c r="D44" s="46"/>
-      <c r="E44" s="16"/>
+      <c r="A44" s="24"/>
+      <c r="B44" s="25"/>
+      <c r="C44" s="30"/>
+      <c r="D44" s="42"/>
+      <c r="E44" s="15"/>
     </row>
     <row r="45" spans="1:7" ht="114" customHeight="1">
-      <c r="A45" s="25"/>
+      <c r="A45" s="24"/>
       <c r="B45" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C45" s="9"/>
-      <c r="D45" s="35"/>
-      <c r="E45" s="6" t="s">
+      <c r="C45" s="8"/>
+      <c r="D45" s="32"/>
+      <c r="E45" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F45" s="9"/>
-      <c r="G45" s="37" t="s">
+      <c r="F45" s="8"/>
+      <c r="G45" s="34" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="25"/>
-      <c r="B46" s="26"/>
-      <c r="C46" s="31"/>
-      <c r="D46" s="48"/>
-      <c r="E46" s="29"/>
+      <c r="A46" s="24"/>
+      <c r="B46" s="25"/>
+      <c r="C46" s="30"/>
+      <c r="D46" s="44"/>
+      <c r="E46" s="28"/>
     </row>
     <row r="47" spans="1:7" ht="213.75" customHeight="1">
-      <c r="A47" s="25"/>
+      <c r="A47" s="24"/>
       <c r="B47" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C47" s="9"/>
-      <c r="D47" s="35"/>
-      <c r="E47" s="6" t="s">
+      <c r="C47" s="8"/>
+      <c r="D47" s="32"/>
+      <c r="E47" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="F47" s="9"/>
-      <c r="G47" s="23" t="s">
+      <c r="F47" s="8"/>
+      <c r="G47" s="22" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="25"/>
-      <c r="B48" s="26"/>
-      <c r="C48" s="31"/>
-      <c r="D48" s="48"/>
-      <c r="E48" s="27"/>
+      <c r="A48" s="24"/>
+      <c r="B48" s="25"/>
+      <c r="C48" s="30"/>
+      <c r="D48" s="44"/>
+      <c r="E48" s="26"/>
     </row>
     <row r="49" spans="1:7" ht="127.5" customHeight="1">
-      <c r="A49" s="25"/>
+      <c r="A49" s="24"/>
       <c r="B49" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C49" s="9"/>
-      <c r="D49" s="35"/>
-      <c r="E49" s="6" t="s">
+      <c r="C49" s="8"/>
+      <c r="D49" s="32"/>
+      <c r="E49" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="F49" s="42"/>
-      <c r="G49" s="23" t="s">
+      <c r="F49" s="38"/>
+      <c r="G49" s="22" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="27" customHeight="1">
-      <c r="A50" s="25"/>
-      <c r="B50" s="26"/>
-      <c r="C50" s="31"/>
-      <c r="D50" s="48"/>
-      <c r="E50" s="21"/>
+      <c r="A50" s="24"/>
+      <c r="B50" s="25"/>
+      <c r="C50" s="30"/>
+      <c r="D50" s="44"/>
+      <c r="E50" s="20"/>
     </row>
     <row r="51" spans="1:7" ht="202.5" customHeight="1">
-      <c r="A51" s="25"/>
+      <c r="A51" s="24"/>
       <c r="B51" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C51" s="9"/>
-      <c r="D51" s="9"/>
-      <c r="E51" s="6" t="s">
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="F51" s="42"/>
-      <c r="G51" s="23" t="s">
+      <c r="F51" s="38"/>
+      <c r="G51" s="22" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="39" customHeight="1">
-      <c r="A52" s="25"/>
-      <c r="B52" s="26"/>
-      <c r="C52" s="31"/>
-      <c r="D52" s="31"/>
-      <c r="E52" s="16"/>
+      <c r="A52" s="24"/>
+      <c r="B52" s="25"/>
+      <c r="C52" s="30"/>
+      <c r="D52" s="30"/>
+      <c r="E52" s="15"/>
     </row>
     <row r="53" spans="1:7" ht="138" customHeight="1">
-      <c r="A53" s="25"/>
+      <c r="A53" s="24"/>
       <c r="B53" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C53" s="9"/>
-      <c r="D53" s="9"/>
-      <c r="E53" s="6" t="s">
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="F53" s="9"/>
-      <c r="G53" s="23" t="s">
+      <c r="F53" s="8"/>
+      <c r="G53" s="22" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="27.75" customHeight="1">
-      <c r="A54" s="25"/>
-      <c r="B54" s="26"/>
-      <c r="C54" s="31"/>
-      <c r="D54" s="48"/>
-      <c r="E54" s="27"/>
+      <c r="A54" s="24"/>
+      <c r="B54" s="25"/>
+      <c r="C54" s="30"/>
+      <c r="D54" s="44"/>
+      <c r="E54" s="26"/>
     </row>
     <row r="55" spans="1:7" ht="114" customHeight="1">
-      <c r="A55" s="25"/>
+      <c r="A55" s="24"/>
       <c r="B55" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C55" s="9"/>
-      <c r="D55" s="35"/>
-      <c r="E55" s="6" t="s">
+      <c r="C55" s="8"/>
+      <c r="D55" s="32"/>
+      <c r="E55" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="F55" s="42"/>
-      <c r="G55" s="23" t="s">
+      <c r="F55" s="38"/>
+      <c r="G55" s="22" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="25"/>
-      <c r="B56" s="26"/>
-      <c r="C56" s="31"/>
-      <c r="D56" s="48"/>
-      <c r="E56" s="21"/>
+      <c r="A56" s="24"/>
+      <c r="B56" s="25"/>
+      <c r="C56" s="30"/>
+      <c r="D56" s="44"/>
+      <c r="E56" s="20"/>
     </row>
     <row r="57" spans="1:7" ht="242.25" customHeight="1">
-      <c r="A57" s="25"/>
+      <c r="A57" s="24"/>
       <c r="B57" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C57" s="9"/>
-      <c r="D57" s="35"/>
-      <c r="E57" s="6" t="s">
+      <c r="C57" s="8"/>
+      <c r="D57" s="32"/>
+      <c r="E57" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="F57" s="42"/>
-      <c r="G57" s="23" t="s">
-        <v>76</v>
+      <c r="F57" s="38"/>
+      <c r="G57" s="22" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="25"/>
-      <c r="B58" s="26"/>
-      <c r="C58" s="31"/>
-      <c r="D58" s="48"/>
-      <c r="E58" s="16"/>
+      <c r="A58" s="24"/>
+      <c r="B58" s="25"/>
+      <c r="C58" s="30"/>
+      <c r="D58" s="44"/>
+      <c r="E58" s="15"/>
     </row>
     <row r="59" spans="1:7" ht="85.5" customHeight="1">
       <c r="A59" s="2"/>
       <c r="B59" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="C59" s="9"/>
-      <c r="D59" s="9"/>
-      <c r="E59" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C59" s="8"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F59" s="38"/>
+      <c r="G59" s="22" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" s="27" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A60" s="2"/>
+      <c r="B60" s="49"/>
+      <c r="C60" s="50"/>
+      <c r="D60" s="50"/>
+      <c r="E60" s="51"/>
+      <c r="F60" s="50"/>
+      <c r="G60" s="51"/>
+    </row>
+    <row r="61" spans="1:7" s="27" customFormat="1" ht="85.5" customHeight="1">
+      <c r="A61" s="2"/>
+      <c r="B61" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C61" s="8"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F61" s="8"/>
+      <c r="G61" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="F59" s="9"/>
-      <c r="G59" s="23" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
-      <c r="A60" s="25"/>
-      <c r="B60" s="26" t="s">
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="24"/>
+    </row>
+    <row r="63" spans="1:7" ht="99.75" customHeight="1">
+      <c r="A63" s="24"/>
+      <c r="B63" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C63" s="8"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="C60" s="31"/>
-      <c r="D60" s="31"/>
-      <c r="E60" s="29"/>
-    </row>
-    <row r="61" spans="1:7" ht="99.75" customHeight="1">
-      <c r="A61" s="25"/>
-      <c r="B61" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C61" s="9"/>
-      <c r="D61" s="9"/>
-      <c r="E61" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="F61" s="42"/>
-      <c r="G61" s="23" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
-      <c r="A62" s="25"/>
-      <c r="B62" s="26"/>
-      <c r="C62" s="31"/>
-      <c r="D62" s="31"/>
-      <c r="E62" s="21"/>
-    </row>
-    <row r="63" spans="1:7" ht="99.75" customHeight="1">
-      <c r="A63" s="25"/>
-      <c r="B63" s="3" t="s">
+      <c r="F63" s="38"/>
+      <c r="G63" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="C63" s="9"/>
-      <c r="D63" s="9"/>
-      <c r="E63" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="F63" s="42"/>
-      <c r="G63" s="23" t="s">
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="24"/>
+    </row>
+    <row r="65" spans="1:7" ht="99.75" customHeight="1">
+      <c r="A65" s="24"/>
+      <c r="B65" s="3" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="64" spans="1:7">
-      <c r="A64" s="25"/>
-      <c r="B64" s="26"/>
-      <c r="C64" s="31"/>
-      <c r="D64" s="31"/>
-      <c r="E64" s="16"/>
-    </row>
-    <row r="65" spans="1:7" ht="177" customHeight="1">
-      <c r="A65" s="25"/>
-      <c r="B65" s="3" t="s">
+      <c r="C65" s="8"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C65" s="9"/>
-      <c r="D65" s="9"/>
-      <c r="E65" s="6" t="s">
+      <c r="F65" s="8"/>
+      <c r="G65" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="F65" s="9"/>
-      <c r="G65" s="23" t="s">
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="24"/>
+    </row>
+    <row r="67" spans="1:7" ht="177" customHeight="1">
+      <c r="A67" s="24"/>
+      <c r="B67" s="3" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="66" spans="1:7">
-      <c r="A66" s="25"/>
-      <c r="B66" s="26"/>
-      <c r="C66" s="31"/>
-      <c r="D66" s="49"/>
-      <c r="E66" s="29"/>
-    </row>
-    <row r="67" spans="1:7" ht="170.25" customHeight="1">
-      <c r="A67" s="25"/>
-      <c r="B67" s="3" t="s">
+      <c r="C67" s="8"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="C67" s="9"/>
-      <c r="D67" s="9"/>
-      <c r="E67" s="22" t="s">
+      <c r="F67" s="8"/>
+      <c r="G67" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="F67" s="9"/>
-      <c r="G67" s="23" t="s">
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="24"/>
+    </row>
+    <row r="69" spans="1:7" ht="170.25" customHeight="1">
+      <c r="A69" s="24"/>
+      <c r="B69" s="4" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="68" spans="1:7">
-      <c r="A68" s="25"/>
-      <c r="B68" s="26"/>
-      <c r="C68" s="31"/>
-      <c r="D68" s="46"/>
-      <c r="E68" s="29"/>
-    </row>
-    <row r="69" spans="1:7" ht="111" customHeight="1">
-      <c r="A69" s="25"/>
-      <c r="B69" s="4" t="s">
+      <c r="C69" s="8"/>
+      <c r="D69" s="8"/>
+      <c r="E69" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C69" s="9"/>
-      <c r="D69" s="9"/>
-      <c r="E69" s="6" t="s">
+      <c r="F69" s="8"/>
+      <c r="G69" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="F69" s="9"/>
-      <c r="G69" s="23" t="s">
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="24"/>
+    </row>
+    <row r="71" spans="1:7" ht="111" customHeight="1">
+      <c r="A71" s="24"/>
+      <c r="B71" s="3" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="70" spans="1:7">
-      <c r="A70" s="25"/>
-      <c r="B70" s="5"/>
-      <c r="C70" s="31"/>
-      <c r="D70" s="31"/>
-      <c r="E70" s="29"/>
-    </row>
-    <row r="71" spans="1:7" ht="114">
-      <c r="A71" s="25"/>
-      <c r="B71" s="3" t="s">
+      <c r="C71" s="8"/>
+      <c r="D71" s="8"/>
+      <c r="E71" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C71" s="9"/>
-      <c r="D71" s="9"/>
-      <c r="E71" s="6" t="s">
+      <c r="F71" s="8"/>
+      <c r="G71" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="F71" s="9"/>
-      <c r="G71" s="23" t="s">
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="24"/>
+    </row>
+    <row r="73" spans="1:7" ht="85.5">
+      <c r="A73" s="24"/>
+      <c r="B73" s="3" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="72" spans="1:7">
-      <c r="A72" s="25"/>
-      <c r="B72" s="26"/>
-      <c r="C72" s="31"/>
-      <c r="D72" s="31"/>
-      <c r="E72" s="29"/>
-    </row>
-    <row r="73" spans="1:7" ht="185.25" customHeight="1">
-      <c r="A73" s="25"/>
-      <c r="B73" s="3" t="s">
+      <c r="C73" s="8"/>
+      <c r="D73" s="8"/>
+      <c r="E73" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C73" s="9"/>
-      <c r="D73" s="9"/>
-      <c r="E73" s="6" t="s">
+      <c r="F73" s="8"/>
+      <c r="G73" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="F73" s="9"/>
-      <c r="G73" s="23" t="s">
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" s="24"/>
+    </row>
+    <row r="75" spans="1:7" ht="148.5" customHeight="1">
+      <c r="A75" s="24"/>
+      <c r="B75" s="3" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="74" spans="1:7">
-      <c r="A74" s="25"/>
-      <c r="F74" s="50"/>
-    </row>
-    <row r="75" spans="1:7" ht="171" customHeight="1">
-      <c r="B75" s="3" t="s">
+      <c r="C75" s="8"/>
+      <c r="D75" s="8"/>
+      <c r="E75" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C75" s="9"/>
-      <c r="D75" s="9"/>
-      <c r="E75" s="6" t="s">
+      <c r="F75" s="8"/>
+      <c r="G75" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="F75" s="9"/>
-      <c r="G75" s="23" t="s">
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" s="24"/>
+      <c r="B76" s="25"/>
+      <c r="C76" s="30"/>
+      <c r="D76" s="30"/>
+      <c r="E76" s="30"/>
+    </row>
+    <row r="77" spans="1:7" ht="112.5" customHeight="1">
+      <c r="B77" s="3" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="76" spans="1:7">
-      <c r="A76" s="2"/>
-      <c r="B76" s="26"/>
-      <c r="C76" s="31"/>
-      <c r="D76" s="31"/>
-      <c r="E76" s="31"/>
-    </row>
-    <row r="77" spans="1:7" ht="171" customHeight="1">
-      <c r="A77"/>
-      <c r="B77" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C77" s="9"/>
-      <c r="D77" s="9"/>
-      <c r="E77" s="6" t="s">
+      <c r="C77" s="8"/>
+      <c r="D77" s="8"/>
+      <c r="E77" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F77" s="8"/>
+      <c r="G77" s="22" t="s">
         <v>100</v>
-      </c>
-      <c r="F77" s="9"/>
-      <c r="G77" s="23" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="2"/>
-      <c r="B78" s="26"/>
-      <c r="C78" s="31"/>
-      <c r="D78" s="31"/>
-      <c r="E78" s="31"/>
-    </row>
-    <row r="79" spans="1:7" ht="207" customHeight="1">
+    </row>
+    <row r="79" spans="1:7" ht="171" customHeight="1">
+      <c r="A79"/>
       <c r="B79" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C79" s="8"/>
+      <c r="D79" s="8"/>
+      <c r="E79" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="F79" s="8"/>
+      <c r="G79" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="C79" s="9"/>
-      <c r="D79" s="9"/>
-      <c r="E79" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="F79" s="9"/>
-      <c r="G79" s="23" t="s">
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" s="2"/>
+    </row>
+    <row r="81" spans="1:7" ht="207" customHeight="1">
+      <c r="B81" s="3" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
-      <c r="A80" s="25"/>
-    </row>
-    <row r="81" spans="1:7" ht="171" customHeight="1">
-      <c r="A81"/>
-      <c r="B81" s="3" t="s">
+      <c r="C81" s="8"/>
+      <c r="D81" s="8"/>
+      <c r="E81" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="C81" s="9"/>
-      <c r="D81" s="9"/>
-      <c r="E81" s="6" t="s">
+      <c r="F81" s="8"/>
+      <c r="G81" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="F81" s="9"/>
-      <c r="G81" s="23" t="s">
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" s="24"/>
+    </row>
+    <row r="83" spans="1:7" ht="171" customHeight="1">
+      <c r="A83"/>
+      <c r="B83" s="3" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" s="32" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A82"/>
-      <c r="B82" s="33"/>
-      <c r="C82" s="34"/>
-      <c r="D82" s="34"/>
-      <c r="E82" s="34"/>
-      <c r="F82" s="38"/>
-      <c r="G82" s="39"/>
-    </row>
-    <row r="83" spans="1:7" ht="171" customHeight="1">
-      <c r="B83" s="3" t="s">
+      <c r="C83" s="8"/>
+      <c r="D83" s="8"/>
+      <c r="E83" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="C83" s="9"/>
-      <c r="D83" s="9"/>
-      <c r="E83" s="8" t="s">
+      <c r="F83" s="8"/>
+      <c r="G83" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="F83" s="9"/>
-      <c r="G83" s="23" t="s">
+    </row>
+    <row r="84" spans="1:7" s="31" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A84"/>
+      <c r="B84" s="25"/>
+      <c r="C84" s="30"/>
+      <c r="D84" s="30"/>
+      <c r="E84" s="30"/>
+      <c r="F84" s="35"/>
+      <c r="G84" s="35"/>
+    </row>
+    <row r="85" spans="1:7" ht="171" customHeight="1">
+      <c r="B85" s="3" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="84" spans="1:7">
-      <c r="A84" s="25"/>
-      <c r="B84" s="26"/>
-      <c r="C84" s="31"/>
-      <c r="D84" s="31"/>
-      <c r="E84" s="31"/>
-    </row>
-    <row r="85" spans="1:7" ht="171" customHeight="1">
-      <c r="A85"/>
-      <c r="B85" s="3" t="s">
+      <c r="C85" s="8"/>
+      <c r="D85" s="8"/>
+      <c r="E85" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="C85" s="9"/>
-      <c r="D85" s="9"/>
-      <c r="E85" s="6" t="s">
+      <c r="F85" s="8"/>
+      <c r="G85" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="F85" s="9"/>
-      <c r="G85" s="23" t="s">
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" s="24"/>
+    </row>
+    <row r="87" spans="1:7" ht="171" customHeight="1">
+      <c r="A87"/>
+      <c r="B87" s="3" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="86" spans="1:7">
-      <c r="A86"/>
-      <c r="B86" s="26"/>
-      <c r="C86" s="31"/>
-      <c r="D86" s="31"/>
-      <c r="E86" s="31"/>
-    </row>
-    <row r="87" spans="1:7" ht="171" customHeight="1">
-      <c r="B87" s="3" t="s">
+      <c r="C87" s="8"/>
+      <c r="D87" s="8"/>
+      <c r="E87" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="F87" s="8"/>
+      <c r="G87" s="22" t="s">
         <v>114</v>
-      </c>
-      <c r="C87" s="9"/>
-      <c r="D87" s="9"/>
-      <c r="E87" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="F87" s="9"/>
-      <c r="G87" s="23" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88"/>
-      <c r="B88" s="26"/>
-      <c r="C88" s="31"/>
-      <c r="D88" s="31"/>
-      <c r="E88" s="31"/>
+      <c r="B88" s="25"/>
+      <c r="C88" s="30"/>
+      <c r="D88" s="30"/>
+      <c r="E88" s="30"/>
     </row>
     <row r="89" spans="1:7" ht="171" customHeight="1">
-      <c r="A89"/>
       <c r="B89" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C89" s="8"/>
+      <c r="D89" s="8"/>
+      <c r="E89" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="C89" s="9"/>
-      <c r="D89" s="9"/>
-      <c r="E89" s="8" t="s">
+      <c r="F89" s="8"/>
+      <c r="G89" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="F89" s="9"/>
-      <c r="G89" s="23" t="s">
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90"/>
+    </row>
+    <row r="91" spans="1:7" ht="204" customHeight="1">
+      <c r="A91"/>
+      <c r="B91" s="3" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A90"/>
-      <c r="B90" s="26"/>
-      <c r="C90" s="31"/>
-      <c r="D90" s="31"/>
-      <c r="E90" s="31"/>
-    </row>
-    <row r="91" spans="1:7" ht="276" customHeight="1">
-      <c r="B91" s="3" t="s">
+      <c r="C91" s="8"/>
+      <c r="D91" s="8"/>
+      <c r="E91" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="C91" s="9"/>
-      <c r="D91" s="9"/>
-      <c r="E91" s="8" t="s">
+      <c r="F91" s="8"/>
+      <c r="G91" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="F91" s="9"/>
-      <c r="G91" s="23" t="s">
+    </row>
+    <row r="92" spans="1:7" ht="18.75" customHeight="1">
+      <c r="A92"/>
+      <c r="B92" s="25"/>
+      <c r="C92" s="30"/>
+      <c r="D92" s="30"/>
+      <c r="E92" s="30"/>
+    </row>
+    <row r="93" spans="1:7" ht="276" customHeight="1">
+      <c r="B93" s="3" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" ht="19.5" customHeight="1">
-      <c r="A92"/>
-      <c r="B92" s="26"/>
-      <c r="C92" s="31"/>
-      <c r="D92" s="31"/>
-      <c r="E92" s="31"/>
-    </row>
-    <row r="93" spans="1:7" ht="258.75" customHeight="1">
-      <c r="A93"/>
-      <c r="B93" s="3" t="s">
+      <c r="C93" s="8"/>
+      <c r="D93" s="8"/>
+      <c r="E93" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="C93" s="9"/>
-      <c r="D93" s="9"/>
-      <c r="E93" s="6" t="s">
+      <c r="F93" s="8"/>
+      <c r="G93" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="F93" s="9"/>
-      <c r="G93" s="23" t="s">
+    </row>
+    <row r="94" spans="1:7" ht="19.5" customHeight="1">
+      <c r="A94"/>
+    </row>
+    <row r="95" spans="1:7" ht="258.75" customHeight="1">
+      <c r="A95"/>
+      <c r="B95" s="3" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" ht="27" customHeight="1">
-      <c r="A94"/>
-      <c r="B94" s="26"/>
-      <c r="C94" s="31"/>
-      <c r="D94" s="31"/>
-      <c r="E94" s="31"/>
-    </row>
-    <row r="95" spans="1:7" ht="171" customHeight="1">
-      <c r="B95" s="3" t="s">
+      <c r="C95" s="8"/>
+      <c r="D95" s="8"/>
+      <c r="E95" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="F95" s="8"/>
+      <c r="G95" s="22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="27" customHeight="1">
+      <c r="A96"/>
+      <c r="B96" s="25"/>
+      <c r="C96" s="30"/>
+      <c r="D96" s="30"/>
+      <c r="E96" s="28"/>
+      <c r="G96" s="37"/>
+    </row>
+    <row r="97" spans="1:7" ht="171" customHeight="1">
+      <c r="B97" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="C95" s="9"/>
-      <c r="D95" s="9"/>
-      <c r="E95" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="F95" s="9"/>
-      <c r="G95" s="23" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" ht="26.25" customHeight="1">
-      <c r="A96"/>
-      <c r="B96" s="26"/>
-      <c r="C96" s="31"/>
-      <c r="D96" s="31"/>
-      <c r="E96" s="29"/>
-      <c r="G96" s="41"/>
-    </row>
-    <row r="97" spans="1:7" ht="171" customHeight="1">
-      <c r="A97"/>
-      <c r="B97" s="3" t="s">
+      <c r="C97" s="8"/>
+      <c r="D97" s="8"/>
+      <c r="E97" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="C97" s="9"/>
-      <c r="D97" s="9"/>
-      <c r="E97" s="6" t="s">
+      <c r="F97" s="8"/>
+      <c r="G97" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="F97" s="9"/>
-      <c r="G97" s="23" t="s">
+    </row>
+    <row r="98" spans="1:7" ht="26.25" customHeight="1">
+      <c r="A98"/>
+    </row>
+    <row r="99" spans="1:7" ht="171" customHeight="1">
+      <c r="A99"/>
+      <c r="B99" s="3" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" ht="30.75" customHeight="1">
-      <c r="A98"/>
-      <c r="B98" s="26"/>
-      <c r="C98" s="31"/>
-      <c r="D98" s="31"/>
-      <c r="E98" s="31"/>
-    </row>
-    <row r="99" spans="1:7" ht="171" customHeight="1">
-      <c r="B99" s="3" t="s">
+      <c r="C99" s="8"/>
+      <c r="D99" s="8"/>
+      <c r="E99" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F99" s="8"/>
+      <c r="G99" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="C99" s="9"/>
-      <c r="D99" s="9"/>
-      <c r="E99" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="F99" s="9"/>
-      <c r="G99" s="23" t="s">
+    </row>
+    <row r="100" spans="1:7" ht="30.75" customHeight="1">
+      <c r="A100"/>
+      <c r="B100" s="25"/>
+      <c r="C100" s="45"/>
+      <c r="D100" s="45"/>
+      <c r="E100" s="45"/>
+    </row>
+    <row r="101" spans="1:7" ht="171" customHeight="1">
+      <c r="B101" s="3" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" ht="27" customHeight="1">
-      <c r="A100"/>
-      <c r="B100" s="26"/>
-      <c r="C100" s="49"/>
-      <c r="D100" s="49"/>
-      <c r="E100" s="49"/>
-    </row>
-    <row r="101" spans="1:7" ht="171" customHeight="1">
-      <c r="A101"/>
-      <c r="B101" s="18" t="s">
+      <c r="C101" s="8"/>
+      <c r="D101" s="46"/>
+      <c r="E101" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="C101" s="9"/>
-      <c r="D101" s="51"/>
-      <c r="E101" s="8" t="s">
+      <c r="F101" s="8"/>
+      <c r="G101" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="F101" s="9"/>
-      <c r="G101" s="23" t="s">
+    </row>
+    <row r="102" spans="1:7" ht="27" customHeight="1">
+      <c r="A102"/>
+    </row>
+    <row r="103" spans="1:7" ht="171" customHeight="1">
+      <c r="A103"/>
+      <c r="B103" s="3" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="102" spans="1:7">
-      <c r="A102"/>
-    </row>
-    <row r="103" spans="1:7" ht="55.5" customHeight="1">
-      <c r="A103"/>
-      <c r="B103" s="18" t="s">
+      <c r="C103" s="8"/>
+      <c r="D103" s="8"/>
+      <c r="E103" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="C103" s="9"/>
-      <c r="D103" s="9"/>
-      <c r="E103" s="8" t="s">
+      <c r="F103" s="8"/>
+      <c r="G103" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="F103" s="9"/>
-      <c r="G103" s="23" t="s">
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104"/>
+    </row>
+    <row r="105" spans="1:7" ht="55.5" customHeight="1">
+      <c r="A105"/>
+      <c r="B105" s="3" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="105" spans="1:7" ht="114">
-      <c r="A105"/>
-      <c r="B105" s="18" t="s">
+      <c r="C105" s="8"/>
+      <c r="D105" s="8"/>
+      <c r="E105" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="C105" s="9"/>
-      <c r="D105" s="9"/>
-      <c r="E105" s="6" t="s">
+      <c r="F105" s="8"/>
+      <c r="G105" s="22" t="s">
         <v>138</v>
-      </c>
-      <c r="F105" s="9"/>
-      <c r="G105" s="23" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="99.75">
       <c r="A107"/>
-      <c r="B107" s="18" t="s">
+      <c r="B107" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C107" s="8"/>
+      <c r="D107" s="8"/>
+      <c r="E107" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="C107" s="9"/>
-      <c r="D107" s="9"/>
-      <c r="E107" s="6" t="s">
+      <c r="F107" s="8"/>
+      <c r="G107" s="22" t="s">
         <v>141</v>
-      </c>
-      <c r="F107" s="9"/>
-      <c r="G107" s="23" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="109" spans="1:7" ht="128.25">
       <c r="A109"/>
-      <c r="B109" s="18" t="s">
+      <c r="B109" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C109" s="8"/>
+      <c r="D109" s="8"/>
+      <c r="E109" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="C109" s="9"/>
-      <c r="D109" s="9"/>
-      <c r="E109" s="6" t="s">
+      <c r="F109" s="8"/>
+      <c r="G109" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="F109" s="9"/>
-      <c r="G109" s="23" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7">
-      <c r="A110"/>
     </row>
     <row r="111" spans="1:7" ht="128.25">
       <c r="A111"/>
-      <c r="B111" s="52" t="s">
+      <c r="B111" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C111" s="8"/>
+      <c r="D111" s="8"/>
+      <c r="E111" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="C111" s="9"/>
-      <c r="D111" s="9"/>
-      <c r="E111" s="6" t="s">
+      <c r="F111" s="8"/>
+      <c r="G111" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="F111" s="9"/>
-      <c r="G111" s="23" t="s">
-        <v>148</v>
-      </c>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112"/>
     </row>
     <row r="113" spans="1:7" ht="85.5">
       <c r="A113"/>
       <c r="B113" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="C113" s="9"/>
-      <c r="D113" s="9"/>
-      <c r="E113" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="C113" s="8"/>
+      <c r="D113" s="32"/>
+      <c r="E113" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="F113" s="8"/>
+      <c r="G113" s="22" t="s">
         <v>164</v>
       </c>
-      <c r="F113" s="9"/>
-      <c r="G113" s="23" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" s="54" customFormat="1">
-      <c r="B114" s="55"/>
-      <c r="C114" s="56"/>
-      <c r="D114" s="56"/>
-      <c r="E114" s="57"/>
-      <c r="F114" s="56"/>
-      <c r="G114" s="57"/>
     </row>
     <row r="115" spans="1:7" ht="142.5">
       <c r="A115"/>
-      <c r="B115" s="18" t="s">
+      <c r="B115" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C115" s="8"/>
+      <c r="D115" s="8"/>
+      <c r="E115" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="C115" s="9"/>
-      <c r="D115" s="9"/>
-      <c r="E115" s="6" t="s">
+      <c r="F115" s="8"/>
+      <c r="G115" s="22" t="s">
         <v>150</v>
       </c>
-      <c r="F115" s="9"/>
-      <c r="G115" s="23" t="s">
-        <v>151</v>
-      </c>
+    </row>
+    <row r="116" spans="1:7" s="48" customFormat="1">
+      <c r="B116" s="29"/>
+      <c r="C116" s="35"/>
+      <c r="D116" s="35"/>
+      <c r="E116" s="35"/>
+      <c r="F116" s="35"/>
+      <c r="G116" s="35"/>
     </row>
     <row r="117" spans="1:7" ht="85.5">
       <c r="A117"/>
-      <c r="B117" s="18" t="s">
+      <c r="B117" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="C117" s="8"/>
+      <c r="D117" s="8"/>
+      <c r="E117" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="C117" s="9"/>
-      <c r="D117" s="9"/>
-      <c r="E117" s="6" t="s">
+      <c r="F117" s="8"/>
+      <c r="G117" s="22" t="s">
         <v>153</v>
       </c>
-      <c r="F117" s="9"/>
-      <c r="G117" s="23" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7">
-      <c r="A118"/>
     </row>
     <row r="119" spans="1:7" ht="185.25">
       <c r="A119"/>
-      <c r="B119" s="18" t="s">
+      <c r="B119" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C119" s="38"/>
+      <c r="D119" s="8"/>
+      <c r="E119" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="C119" s="9"/>
-      <c r="D119" s="9"/>
-      <c r="E119" s="6" t="s">
+      <c r="F119" s="8"/>
+      <c r="G119" s="22" t="s">
         <v>156</v>
-      </c>
-      <c r="F119" s="9"/>
-      <c r="G119" s="23" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -2879,41 +2801,47 @@
     </row>
     <row r="121" spans="1:7" ht="142.5">
       <c r="A121"/>
-      <c r="B121" s="18" t="s">
+      <c r="B121" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C121" s="38"/>
+      <c r="D121" s="8"/>
+      <c r="E121" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="C121" s="9"/>
-      <c r="D121" s="9"/>
-      <c r="E121" s="6" t="s">
+      <c r="F121" s="8"/>
+      <c r="G121" s="22" t="s">
         <v>159</v>
       </c>
-      <c r="F121" s="9"/>
-      <c r="G121" s="23" t="s">
-        <v>160</v>
-      </c>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="A122"/>
     </row>
     <row r="123" spans="1:7" ht="142.5">
       <c r="A123"/>
       <c r="B123" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C123" s="8"/>
+      <c r="D123" s="8"/>
+      <c r="E123" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="C123" s="9"/>
-      <c r="D123" s="9"/>
-      <c r="E123" s="6" t="s">
+      <c r="F123" s="8"/>
+      <c r="G123" s="22" t="s">
         <v>162</v>
       </c>
-      <c r="F123" s="9"/>
-      <c r="G123" s="23" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" s="17" customFormat="1">
-      <c r="B124" s="53"/>
-      <c r="C124" s="40"/>
-      <c r="D124" s="40"/>
-      <c r="E124" s="40"/>
-      <c r="F124" s="40"/>
-      <c r="G124" s="40"/>
+    </row>
+    <row r="124" spans="1:7" s="16" customFormat="1">
+      <c r="B124" s="47"/>
+      <c r="C124" s="36"/>
+      <c r="D124" s="36"/>
+      <c r="E124" s="36"/>
+      <c r="F124" s="36"/>
+      <c r="G124" s="36"/>
+    </row>
+    <row r="130" spans="4:4">
+      <c r="D130" s="30"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/email_templates.xlsx
+++ b/email_templates.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thanos\Desktop\dist\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thanos\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F57EB094-EA68-44B9-B4EB-358F290C5095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5B8D43A-9C68-4C6F-A4D9-1BFFEA68E2D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="179">
   <si>
     <t>TEMU</t>
   </si>
@@ -1102,7 +1102,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1198,9 +1198,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1571,10 +1568,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G130"/>
+  <dimension ref="A1:G128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A120" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B136" sqref="B136"/>
+    <sheetView tabSelected="1" topLeftCell="A117" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1756,22 +1753,21 @@
       <c r="B16" s="25"/>
       <c r="C16" s="30"/>
       <c r="D16" s="30"/>
-      <c r="E16" s="6"/>
-      <c r="G16" s="37"/>
-    </row>
-    <row r="17" spans="1:7" ht="159" customHeight="1">
+      <c r="E16" s="18"/>
+    </row>
+    <row r="17" spans="1:7" ht="172.5" customHeight="1">
       <c r="A17" s="24"/>
       <c r="B17" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="39"/>
       <c r="E17" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="F17" s="8"/>
+        <v>24</v>
+      </c>
+      <c r="F17" s="5"/>
       <c r="G17" s="22" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1779,21 +1775,22 @@
       <c r="B18" s="25"/>
       <c r="C18" s="30"/>
       <c r="D18" s="30"/>
-      <c r="E18" s="18"/>
-    </row>
-    <row r="19" spans="1:7" ht="172.5" customHeight="1">
+      <c r="E18" s="6"/>
+      <c r="F18" s="37"/>
+    </row>
+    <row r="19" spans="1:7" ht="213.75" customHeight="1">
       <c r="A19" s="24"/>
       <c r="B19" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C19" s="8"/>
-      <c r="D19" s="40"/>
+      <c r="D19" s="8"/>
       <c r="E19" s="7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F19" s="5"/>
       <c r="G19" s="22" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1804,19 +1801,19 @@
       <c r="E20" s="6"/>
       <c r="F20" s="37"/>
     </row>
-    <row r="21" spans="1:7" ht="213.75" customHeight="1">
+    <row r="21" spans="1:7" ht="128.25" customHeight="1">
       <c r="A21" s="24"/>
       <c r="B21" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
-      <c r="E21" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F21" s="5"/>
+      <c r="E21" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="38"/>
       <c r="G21" s="22" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1824,22 +1821,21 @@
       <c r="B22" s="25"/>
       <c r="C22" s="30"/>
       <c r="D22" s="30"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="37"/>
+      <c r="E22" s="15"/>
     </row>
     <row r="23" spans="1:7" ht="128.25" customHeight="1">
       <c r="A23" s="24"/>
       <c r="B23" s="3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
       <c r="E23" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F23" s="38"/>
-      <c r="G23" s="22" t="s">
-        <v>31</v>
+        <v>166</v>
+      </c>
+      <c r="F23" s="8"/>
+      <c r="G23" s="33" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1847,21 +1843,21 @@
       <c r="B24" s="25"/>
       <c r="C24" s="30"/>
       <c r="D24" s="30"/>
-      <c r="E24" s="15"/>
-    </row>
-    <row r="25" spans="1:7" ht="128.25" customHeight="1">
+      <c r="E24" s="28"/>
+    </row>
+    <row r="25" spans="1:7" ht="114" customHeight="1">
       <c r="A25" s="24"/>
       <c r="B25" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
       <c r="E25" s="5" t="s">
-        <v>166</v>
+        <v>35</v>
       </c>
       <c r="F25" s="8"/>
-      <c r="G25" s="33" t="s">
-        <v>33</v>
+      <c r="G25" s="22" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1869,21 +1865,21 @@
       <c r="B26" s="25"/>
       <c r="C26" s="30"/>
       <c r="D26" s="30"/>
-      <c r="E26" s="28"/>
-    </row>
-    <row r="27" spans="1:7" ht="114" customHeight="1">
+      <c r="E26" s="26"/>
+    </row>
+    <row r="27" spans="1:7" ht="128.25" customHeight="1">
       <c r="A27" s="24"/>
       <c r="B27" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
       <c r="E27" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F27" s="8"/>
+        <v>167</v>
+      </c>
+      <c r="F27" s="38"/>
       <c r="G27" s="22" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1891,21 +1887,21 @@
       <c r="B28" s="25"/>
       <c r="C28" s="30"/>
       <c r="D28" s="30"/>
-      <c r="E28" s="26"/>
-    </row>
-    <row r="29" spans="1:7" ht="128.25" customHeight="1">
+      <c r="E28" s="15"/>
+    </row>
+    <row r="29" spans="1:7" ht="227.25" customHeight="1">
       <c r="A29" s="24"/>
       <c r="B29" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
       <c r="E29" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="F29" s="38"/>
+        <v>40</v>
+      </c>
+      <c r="F29" s="8"/>
       <c r="G29" s="22" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1913,21 +1909,21 @@
       <c r="B30" s="25"/>
       <c r="C30" s="30"/>
       <c r="D30" s="30"/>
-      <c r="E30" s="15"/>
-    </row>
-    <row r="31" spans="1:7" ht="227.25" customHeight="1">
+      <c r="E30" s="26"/>
+    </row>
+    <row r="31" spans="1:7" ht="156.75" customHeight="1">
       <c r="A31" s="24"/>
       <c r="B31" s="3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
-      <c r="E31" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F31" s="8"/>
+      <c r="E31" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="F31" s="38"/>
       <c r="G31" s="22" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1935,21 +1931,21 @@
       <c r="B32" s="25"/>
       <c r="C32" s="30"/>
       <c r="D32" s="30"/>
-      <c r="E32" s="26"/>
-    </row>
-    <row r="33" spans="1:7" ht="156.75" customHeight="1">
-      <c r="A33" s="24"/>
+      <c r="E32" s="15"/>
+    </row>
+    <row r="33" spans="1:7" ht="143.25" customHeight="1">
+      <c r="A33" s="2"/>
       <c r="B33" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
-      <c r="E33" s="23" t="s">
-        <v>175</v>
-      </c>
-      <c r="F33" s="38"/>
+      <c r="E33" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="F33" s="8"/>
       <c r="G33" s="22" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1957,21 +1953,21 @@
       <c r="B34" s="25"/>
       <c r="C34" s="30"/>
       <c r="D34" s="30"/>
-      <c r="E34" s="15"/>
-    </row>
-    <row r="35" spans="1:7" ht="143.25" customHeight="1">
-      <c r="A35" s="2"/>
+      <c r="E34" s="28"/>
+    </row>
+    <row r="35" spans="1:7" ht="141" customHeight="1">
+      <c r="A35" s="24"/>
       <c r="B35" s="3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
-      <c r="E35" s="19" t="s">
-        <v>45</v>
+      <c r="E35" s="11" t="s">
+        <v>176</v>
       </c>
       <c r="F35" s="8"/>
-      <c r="G35" s="22" t="s">
-        <v>46</v>
+      <c r="G35" s="34" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1979,289 +1975,285 @@
       <c r="B36" s="25"/>
       <c r="C36" s="30"/>
       <c r="D36" s="30"/>
-      <c r="E36" s="28"/>
-    </row>
-    <row r="37" spans="1:7" ht="141" customHeight="1">
+      <c r="E36" s="26"/>
+    </row>
+    <row r="37" spans="1:7" ht="159.75" customHeight="1">
       <c r="A37" s="24"/>
       <c r="B37" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
-      <c r="E37" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="F37" s="8"/>
+      <c r="E37" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F37" s="38"/>
       <c r="G37" s="34" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" s="12" customFormat="1">
       <c r="A38" s="24"/>
       <c r="B38" s="25"/>
       <c r="C38" s="30"/>
       <c r="D38" s="30"/>
-      <c r="E38" s="26"/>
-    </row>
-    <row r="39" spans="1:7" ht="159.75" customHeight="1">
-      <c r="A39" s="24"/>
-      <c r="B39" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F39" s="38"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="40"/>
+      <c r="G38" s="35"/>
+    </row>
+    <row r="39" spans="1:7" s="1" customFormat="1" ht="148.5" customHeight="1">
+      <c r="A39" s="9"/>
+      <c r="B39" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C39" s="39"/>
+      <c r="D39" s="39"/>
+      <c r="E39" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F39" s="8"/>
       <c r="G39" s="34" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" s="12" customFormat="1">
-      <c r="A40" s="24"/>
-      <c r="B40" s="25"/>
-      <c r="C40" s="30"/>
-      <c r="D40" s="30"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="41"/>
-      <c r="G40" s="35"/>
-    </row>
-    <row r="41" spans="1:7" s="1" customFormat="1" ht="148.5" customHeight="1">
-      <c r="A41" s="9"/>
-      <c r="B41" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C41" s="40"/>
-      <c r="D41" s="40"/>
-      <c r="E41" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="F41" s="8"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="13"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="41"/>
+      <c r="D40" s="42"/>
+      <c r="E40" s="20"/>
+    </row>
+    <row r="41" spans="1:7" ht="156.75" customHeight="1">
+      <c r="A41" s="24"/>
+      <c r="B41" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F41" s="38"/>
       <c r="G41" s="34" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="13"/>
-      <c r="B42" s="14"/>
-      <c r="C42" s="42"/>
-      <c r="D42" s="43"/>
-      <c r="E42" s="20"/>
-    </row>
-    <row r="43" spans="1:7" ht="156.75" customHeight="1">
+      <c r="A42" s="24"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="30"/>
+      <c r="D42" s="41"/>
+      <c r="E42" s="15"/>
+    </row>
+    <row r="43" spans="1:7" ht="114" customHeight="1">
       <c r="A43" s="24"/>
       <c r="B43" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
+      <c r="D43" s="32"/>
       <c r="E43" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="F43" s="38"/>
+        <v>57</v>
+      </c>
+      <c r="F43" s="8"/>
       <c r="G43" s="34" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="24"/>
       <c r="B44" s="25"/>
       <c r="C44" s="30"/>
-      <c r="D44" s="42"/>
-      <c r="E44" s="15"/>
-    </row>
-    <row r="45" spans="1:7" ht="114" customHeight="1">
+      <c r="D44" s="43"/>
+      <c r="E44" s="28"/>
+    </row>
+    <row r="45" spans="1:7" ht="213.75" customHeight="1">
       <c r="A45" s="24"/>
-      <c r="B45" s="3" t="s">
-        <v>56</v>
+      <c r="B45" s="4" t="s">
+        <v>59</v>
       </c>
       <c r="C45" s="8"/>
       <c r="D45" s="32"/>
       <c r="E45" s="5" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F45" s="8"/>
-      <c r="G45" s="34" t="s">
-        <v>58</v>
+      <c r="G45" s="22" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="24"/>
       <c r="B46" s="25"/>
       <c r="C46" s="30"/>
-      <c r="D46" s="44"/>
-      <c r="E46" s="28"/>
-    </row>
-    <row r="47" spans="1:7" ht="213.75" customHeight="1">
+      <c r="D46" s="43"/>
+      <c r="E46" s="26"/>
+    </row>
+    <row r="47" spans="1:7" ht="127.5" customHeight="1">
       <c r="A47" s="24"/>
-      <c r="B47" s="4" t="s">
-        <v>59</v>
+      <c r="B47" s="3" t="s">
+        <v>62</v>
       </c>
       <c r="C47" s="8"/>
       <c r="D47" s="32"/>
       <c r="E47" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="F47" s="8"/>
+        <v>63</v>
+      </c>
+      <c r="F47" s="38"/>
       <c r="G47" s="22" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="27" customHeight="1">
       <c r="A48" s="24"/>
       <c r="B48" s="25"/>
       <c r="C48" s="30"/>
-      <c r="D48" s="44"/>
-      <c r="E48" s="26"/>
-    </row>
-    <row r="49" spans="1:7" ht="127.5" customHeight="1">
+      <c r="D48" s="43"/>
+      <c r="E48" s="20"/>
+    </row>
+    <row r="49" spans="1:7" ht="202.5" customHeight="1">
       <c r="A49" s="24"/>
       <c r="B49" s="3" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C49" s="8"/>
-      <c r="D49" s="32"/>
+      <c r="D49" s="8"/>
       <c r="E49" s="5" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F49" s="38"/>
       <c r="G49" s="22" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="27" customHeight="1">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="39" customHeight="1">
       <c r="A50" s="24"/>
       <c r="B50" s="25"/>
       <c r="C50" s="30"/>
-      <c r="D50" s="44"/>
-      <c r="E50" s="20"/>
-    </row>
-    <row r="51" spans="1:7" ht="202.5" customHeight="1">
+      <c r="D50" s="30"/>
+      <c r="E50" s="15"/>
+    </row>
+    <row r="51" spans="1:7" ht="138" customHeight="1">
       <c r="A51" s="24"/>
       <c r="B51" s="3" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C51" s="8"/>
       <c r="D51" s="8"/>
       <c r="E51" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="F51" s="38"/>
+        <v>69</v>
+      </c>
+      <c r="F51" s="8"/>
       <c r="G51" s="22" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="39" customHeight="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="27.75" customHeight="1">
       <c r="A52" s="24"/>
       <c r="B52" s="25"/>
       <c r="C52" s="30"/>
-      <c r="D52" s="30"/>
-      <c r="E52" s="15"/>
-    </row>
-    <row r="53" spans="1:7" ht="138" customHeight="1">
+      <c r="D52" s="43"/>
+      <c r="E52" s="26"/>
+    </row>
+    <row r="53" spans="1:7" ht="114" customHeight="1">
       <c r="A53" s="24"/>
       <c r="B53" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C53" s="8"/>
-      <c r="D53" s="8"/>
+      <c r="D53" s="32"/>
       <c r="E53" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="F53" s="8"/>
+        <v>72</v>
+      </c>
+      <c r="F53" s="38"/>
       <c r="G53" s="22" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="27.75" customHeight="1">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="24"/>
       <c r="B54" s="25"/>
       <c r="C54" s="30"/>
-      <c r="D54" s="44"/>
-      <c r="E54" s="26"/>
-    </row>
-    <row r="55" spans="1:7" ht="114" customHeight="1">
+      <c r="D54" s="43"/>
+      <c r="E54" s="20"/>
+    </row>
+    <row r="55" spans="1:7" ht="242.25" customHeight="1">
       <c r="A55" s="24"/>
       <c r="B55" s="3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C55" s="8"/>
       <c r="D55" s="32"/>
       <c r="E55" s="5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F55" s="38"/>
       <c r="G55" s="22" t="s">
-        <v>73</v>
+        <v>178</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="24"/>
       <c r="B56" s="25"/>
       <c r="C56" s="30"/>
-      <c r="D56" s="44"/>
-      <c r="E56" s="20"/>
-    </row>
-    <row r="57" spans="1:7" ht="242.25" customHeight="1">
-      <c r="A57" s="24"/>
+      <c r="D56" s="43"/>
+      <c r="E56" s="15"/>
+    </row>
+    <row r="57" spans="1:7" ht="85.5" customHeight="1">
+      <c r="A57" s="2"/>
       <c r="B57" s="3" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C57" s="8"/>
-      <c r="D57" s="32"/>
+      <c r="D57" s="8"/>
       <c r="E57" s="5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F57" s="38"/>
       <c r="G57" s="22" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
-      <c r="A58" s="24"/>
-      <c r="B58" s="25"/>
-      <c r="C58" s="30"/>
-      <c r="D58" s="44"/>
-      <c r="E58" s="15"/>
-    </row>
-    <row r="59" spans="1:7" ht="85.5" customHeight="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" s="27" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A58" s="2"/>
+      <c r="B58" s="48"/>
+      <c r="C58" s="49"/>
+      <c r="D58" s="49"/>
+      <c r="E58" s="50"/>
+      <c r="F58" s="49"/>
+      <c r="G58" s="50"/>
+    </row>
+    <row r="59" spans="1:7" s="27" customFormat="1" ht="85.5" customHeight="1">
       <c r="A59" s="2"/>
       <c r="B59" s="3" t="s">
-        <v>78</v>
+        <v>169</v>
       </c>
       <c r="C59" s="8"/>
       <c r="D59" s="8"/>
       <c r="E59" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="F59" s="38"/>
+        <v>76</v>
+      </c>
+      <c r="F59" s="8"/>
       <c r="G59" s="22" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" s="27" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A60" s="2"/>
-      <c r="B60" s="49"/>
-      <c r="C60" s="50"/>
-      <c r="D60" s="50"/>
-      <c r="E60" s="51"/>
-      <c r="F60" s="50"/>
-      <c r="G60" s="51"/>
-    </row>
-    <row r="61" spans="1:7" s="27" customFormat="1" ht="85.5" customHeight="1">
-      <c r="A61" s="2"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="24"/>
+    </row>
+    <row r="61" spans="1:7" ht="99.75" customHeight="1">
+      <c r="A61" s="24"/>
       <c r="B61" s="3" t="s">
-        <v>169</v>
+        <v>81</v>
       </c>
       <c r="C61" s="8"/>
       <c r="D61" s="8"/>
       <c r="E61" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="F61" s="8"/>
+        <v>170</v>
+      </c>
+      <c r="F61" s="38"/>
       <c r="G61" s="22" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -2270,115 +2262,118 @@
     <row r="63" spans="1:7" ht="99.75" customHeight="1">
       <c r="A63" s="24"/>
       <c r="B63" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C63" s="8"/>
       <c r="D63" s="8"/>
       <c r="E63" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="F63" s="38"/>
+        <v>84</v>
+      </c>
+      <c r="F63" s="8"/>
       <c r="G63" s="22" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="24"/>
     </row>
-    <row r="65" spans="1:7" ht="99.75" customHeight="1">
+    <row r="65" spans="1:7" ht="177" customHeight="1">
       <c r="A65" s="24"/>
       <c r="B65" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C65" s="8"/>
       <c r="D65" s="8"/>
-      <c r="E65" s="5" t="s">
-        <v>84</v>
+      <c r="E65" s="21" t="s">
+        <v>87</v>
       </c>
       <c r="F65" s="8"/>
       <c r="G65" s="22" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="24"/>
     </row>
-    <row r="67" spans="1:7" ht="177" customHeight="1">
+    <row r="67" spans="1:7" ht="170.25" customHeight="1">
       <c r="A67" s="24"/>
-      <c r="B67" s="3" t="s">
-        <v>86</v>
+      <c r="B67" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="C67" s="8"/>
       <c r="D67" s="8"/>
-      <c r="E67" s="21" t="s">
-        <v>87</v>
+      <c r="E67" s="5" t="s">
+        <v>90</v>
       </c>
       <c r="F67" s="8"/>
       <c r="G67" s="22" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="24"/>
     </row>
-    <row r="69" spans="1:7" ht="170.25" customHeight="1">
+    <row r="69" spans="1:7" ht="111" customHeight="1">
       <c r="A69" s="24"/>
-      <c r="B69" s="4" t="s">
-        <v>89</v>
+      <c r="B69" s="3" t="s">
+        <v>92</v>
       </c>
       <c r="C69" s="8"/>
       <c r="D69" s="8"/>
       <c r="E69" s="5" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F69" s="8"/>
       <c r="G69" s="22" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="24"/>
     </row>
-    <row r="71" spans="1:7" ht="111" customHeight="1">
+    <row r="71" spans="1:7" ht="85.5">
       <c r="A71" s="24"/>
       <c r="B71" s="3" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C71" s="8"/>
       <c r="D71" s="8"/>
       <c r="E71" s="5" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F71" s="8"/>
       <c r="G71" s="22" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="24"/>
     </row>
-    <row r="73" spans="1:7" ht="85.5">
+    <row r="73" spans="1:7" ht="148.5" customHeight="1">
       <c r="A73" s="24"/>
       <c r="B73" s="3" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C73" s="8"/>
       <c r="D73" s="8"/>
       <c r="E73" s="5" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F73" s="8"/>
       <c r="G73" s="22" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="24"/>
-    </row>
-    <row r="75" spans="1:7" ht="148.5" customHeight="1">
-      <c r="A75" s="24"/>
+      <c r="B74" s="25"/>
+      <c r="C74" s="30"/>
+      <c r="D74" s="30"/>
+      <c r="E74" s="30"/>
+    </row>
+    <row r="75" spans="1:7" ht="112.5" customHeight="1">
       <c r="B75" s="3" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C75" s="8"/>
       <c r="D75" s="8"/>
@@ -2391,409 +2386,406 @@
       </c>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="24"/>
-      <c r="B76" s="25"/>
-      <c r="C76" s="30"/>
-      <c r="D76" s="30"/>
-      <c r="E76" s="30"/>
-    </row>
-    <row r="77" spans="1:7" ht="112.5" customHeight="1">
+      <c r="A76" s="2"/>
+    </row>
+    <row r="77" spans="1:7" ht="171" customHeight="1">
+      <c r="A77"/>
       <c r="B77" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C77" s="8"/>
       <c r="D77" s="8"/>
       <c r="E77" s="5" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
       <c r="F77" s="8"/>
       <c r="G77" s="22" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="2"/>
     </row>
-    <row r="79" spans="1:7" ht="171" customHeight="1">
-      <c r="A79"/>
+    <row r="79" spans="1:7" ht="207" customHeight="1">
       <c r="B79" s="3" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C79" s="8"/>
       <c r="D79" s="8"/>
       <c r="E79" s="5" t="s">
-        <v>171</v>
+        <v>105</v>
       </c>
       <c r="F79" s="8"/>
       <c r="G79" s="22" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="2"/>
-    </row>
-    <row r="81" spans="1:7" ht="207" customHeight="1">
+      <c r="A80" s="24"/>
+    </row>
+    <row r="81" spans="1:7" ht="171" customHeight="1">
+      <c r="A81"/>
       <c r="B81" s="3" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C81" s="8"/>
       <c r="D81" s="8"/>
-      <c r="E81" s="5" t="s">
-        <v>105</v>
+      <c r="E81" s="7" t="s">
+        <v>108</v>
       </c>
       <c r="F81" s="8"/>
       <c r="G81" s="22" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
-      <c r="A82" s="24"/>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" s="31" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A82"/>
+      <c r="B82" s="25"/>
+      <c r="C82" s="30"/>
+      <c r="D82" s="30"/>
+      <c r="E82" s="30"/>
+      <c r="F82" s="35"/>
+      <c r="G82" s="35"/>
     </row>
     <row r="83" spans="1:7" ht="171" customHeight="1">
-      <c r="A83"/>
       <c r="B83" s="3" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C83" s="8"/>
       <c r="D83" s="8"/>
-      <c r="E83" s="7" t="s">
-        <v>108</v>
+      <c r="E83" s="5" t="s">
+        <v>111</v>
       </c>
       <c r="F83" s="8"/>
       <c r="G83" s="22" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" s="31" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A84"/>
-      <c r="B84" s="25"/>
-      <c r="C84" s="30"/>
-      <c r="D84" s="30"/>
-      <c r="E84" s="30"/>
-      <c r="F84" s="35"/>
-      <c r="G84" s="35"/>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" s="24"/>
     </row>
     <row r="85" spans="1:7" ht="171" customHeight="1">
+      <c r="A85"/>
       <c r="B85" s="3" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C85" s="8"/>
       <c r="D85" s="8"/>
       <c r="E85" s="5" t="s">
-        <v>111</v>
+        <v>172</v>
       </c>
       <c r="F85" s="8"/>
       <c r="G85" s="22" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="86" spans="1:7">
-      <c r="A86" s="24"/>
+      <c r="A86"/>
+      <c r="B86" s="25"/>
+      <c r="C86" s="30"/>
+      <c r="D86" s="30"/>
+      <c r="E86" s="30"/>
     </row>
     <row r="87" spans="1:7" ht="171" customHeight="1">
-      <c r="A87"/>
       <c r="B87" s="3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C87" s="8"/>
       <c r="D87" s="8"/>
-      <c r="E87" s="5" t="s">
-        <v>172</v>
+      <c r="E87" s="7" t="s">
+        <v>116</v>
       </c>
       <c r="F87" s="8"/>
       <c r="G87" s="22" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88"/>
-      <c r="B88" s="25"/>
-      <c r="C88" s="30"/>
-      <c r="D88" s="30"/>
-      <c r="E88" s="30"/>
-    </row>
-    <row r="89" spans="1:7" ht="171" customHeight="1">
+    </row>
+    <row r="89" spans="1:7" ht="204" customHeight="1">
+      <c r="A89"/>
       <c r="B89" s="3" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C89" s="8"/>
       <c r="D89" s="8"/>
       <c r="E89" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F89" s="8"/>
       <c r="G89" s="22" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="18.75" customHeight="1">
       <c r="A90"/>
-    </row>
-    <row r="91" spans="1:7" ht="204" customHeight="1">
-      <c r="A91"/>
+      <c r="B90" s="25"/>
+      <c r="C90" s="30"/>
+      <c r="D90" s="30"/>
+      <c r="E90" s="30"/>
+    </row>
+    <row r="91" spans="1:7" ht="276" customHeight="1">
       <c r="B91" s="3" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C91" s="8"/>
       <c r="D91" s="8"/>
-      <c r="E91" s="7" t="s">
-        <v>119</v>
+      <c r="E91" s="5" t="s">
+        <v>122</v>
       </c>
       <c r="F91" s="8"/>
       <c r="G91" s="22" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" ht="18.75" customHeight="1">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="19.5" customHeight="1">
       <c r="A92"/>
-      <c r="B92" s="25"/>
-      <c r="C92" s="30"/>
-      <c r="D92" s="30"/>
-      <c r="E92" s="30"/>
-    </row>
-    <row r="93" spans="1:7" ht="276" customHeight="1">
+    </row>
+    <row r="93" spans="1:7" ht="258.75" customHeight="1">
+      <c r="A93"/>
       <c r="B93" s="3" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C93" s="8"/>
       <c r="D93" s="8"/>
       <c r="E93" s="5" t="s">
-        <v>122</v>
+        <v>173</v>
       </c>
       <c r="F93" s="8"/>
       <c r="G93" s="22" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" ht="19.5" customHeight="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="27" customHeight="1">
       <c r="A94"/>
-    </row>
-    <row r="95" spans="1:7" ht="258.75" customHeight="1">
-      <c r="A95"/>
+      <c r="B94" s="25"/>
+      <c r="C94" s="30"/>
+      <c r="D94" s="30"/>
+      <c r="E94" s="28"/>
+      <c r="G94" s="37"/>
+    </row>
+    <row r="95" spans="1:7" ht="171" customHeight="1">
       <c r="B95" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C95" s="8"/>
       <c r="D95" s="8"/>
       <c r="E95" s="5" t="s">
-        <v>173</v>
+        <v>126</v>
       </c>
       <c r="F95" s="8"/>
       <c r="G95" s="22" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" ht="27" customHeight="1">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="26.25" customHeight="1">
       <c r="A96"/>
-      <c r="B96" s="25"/>
-      <c r="C96" s="30"/>
-      <c r="D96" s="30"/>
-      <c r="E96" s="28"/>
-      <c r="G96" s="37"/>
     </row>
     <row r="97" spans="1:7" ht="171" customHeight="1">
+      <c r="A97"/>
       <c r="B97" s="3" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C97" s="8"/>
       <c r="D97" s="8"/>
-      <c r="E97" s="5" t="s">
-        <v>126</v>
+      <c r="E97" s="7" t="s">
+        <v>174</v>
       </c>
       <c r="F97" s="8"/>
       <c r="G97" s="22" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" ht="26.25" customHeight="1">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="30.75" customHeight="1">
       <c r="A98"/>
+      <c r="B98" s="25"/>
+      <c r="C98" s="44"/>
+      <c r="D98" s="44"/>
+      <c r="E98" s="44"/>
     </row>
     <row r="99" spans="1:7" ht="171" customHeight="1">
-      <c r="A99"/>
       <c r="B99" s="3" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C99" s="8"/>
-      <c r="D99" s="8"/>
+      <c r="D99" s="45"/>
       <c r="E99" s="7" t="s">
-        <v>174</v>
+        <v>131</v>
       </c>
       <c r="F99" s="8"/>
       <c r="G99" s="22" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" ht="30.75" customHeight="1">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="27" customHeight="1">
       <c r="A100"/>
-      <c r="B100" s="25"/>
-      <c r="C100" s="45"/>
-      <c r="D100" s="45"/>
-      <c r="E100" s="45"/>
     </row>
     <row r="101" spans="1:7" ht="171" customHeight="1">
+      <c r="A101"/>
       <c r="B101" s="3" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C101" s="8"/>
-      <c r="D101" s="46"/>
+      <c r="D101" s="8"/>
       <c r="E101" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="F101" s="8"/>
       <c r="G101" s="22" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" ht="27" customHeight="1">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102"/>
     </row>
-    <row r="103" spans="1:7" ht="171" customHeight="1">
+    <row r="103" spans="1:7" ht="55.5" customHeight="1">
       <c r="A103"/>
       <c r="B103" s="3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C103" s="8"/>
       <c r="D103" s="8"/>
-      <c r="E103" s="7" t="s">
-        <v>134</v>
+      <c r="E103" s="5" t="s">
+        <v>137</v>
       </c>
       <c r="F103" s="8"/>
       <c r="G103" s="22" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
-      <c r="A104"/>
-    </row>
-    <row r="105" spans="1:7" ht="55.5" customHeight="1">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="99.75">
       <c r="A105"/>
       <c r="B105" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C105" s="8"/>
       <c r="D105" s="8"/>
       <c r="E105" s="5" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="F105" s="8"/>
       <c r="G105" s="22" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" ht="99.75">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="128.25">
       <c r="A107"/>
       <c r="B107" s="3" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C107" s="8"/>
       <c r="D107" s="8"/>
       <c r="E107" s="5" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="F107" s="8"/>
       <c r="G107" s="22" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="109" spans="1:7" ht="128.25">
       <c r="A109"/>
-      <c r="B109" s="3" t="s">
-        <v>142</v>
+      <c r="B109" s="4" t="s">
+        <v>145</v>
       </c>
       <c r="C109" s="8"/>
       <c r="D109" s="8"/>
       <c r="E109" s="5" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="F109" s="8"/>
       <c r="G109" s="22" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" ht="128.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110"/>
+    </row>
+    <row r="111" spans="1:7" ht="85.5">
       <c r="A111"/>
-      <c r="B111" s="4" t="s">
-        <v>145</v>
+      <c r="B111" s="3" t="s">
+        <v>177</v>
       </c>
       <c r="C111" s="8"/>
-      <c r="D111" s="8"/>
+      <c r="D111" s="32"/>
       <c r="E111" s="5" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="F111" s="8"/>
       <c r="G111" s="22" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7">
-      <c r="A112"/>
-    </row>
-    <row r="113" spans="1:7" ht="85.5">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" ht="142.5">
       <c r="A113"/>
       <c r="B113" s="3" t="s">
-        <v>177</v>
+        <v>148</v>
       </c>
       <c r="C113" s="8"/>
-      <c r="D113" s="32"/>
+      <c r="D113" s="8"/>
       <c r="E113" s="5" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="F113" s="8"/>
       <c r="G113" s="22" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" ht="142.5">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" s="47" customFormat="1">
+      <c r="B114" s="29"/>
+      <c r="C114" s="35"/>
+      <c r="D114" s="35"/>
+      <c r="E114" s="35"/>
+      <c r="F114" s="35"/>
+      <c r="G114" s="35"/>
+    </row>
+    <row r="115" spans="1:7" ht="85.5">
       <c r="A115"/>
-      <c r="B115" s="3" t="s">
-        <v>148</v>
+      <c r="B115" s="17" t="s">
+        <v>151</v>
       </c>
       <c r="C115" s="8"/>
       <c r="D115" s="8"/>
       <c r="E115" s="5" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="F115" s="8"/>
       <c r="G115" s="22" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" s="48" customFormat="1">
-      <c r="B116" s="29"/>
-      <c r="C116" s="35"/>
-      <c r="D116" s="35"/>
-      <c r="E116" s="35"/>
-      <c r="F116" s="35"/>
-      <c r="G116" s="35"/>
-    </row>
-    <row r="117" spans="1:7" ht="85.5">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" ht="185.25">
       <c r="A117"/>
-      <c r="B117" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="C117" s="8"/>
+      <c r="B117" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C117" s="38"/>
       <c r="D117" s="8"/>
       <c r="E117" s="5" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="F117" s="8"/>
       <c r="G117" s="22" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" ht="185.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118"/>
+    </row>
+    <row r="119" spans="1:7" ht="142.5">
       <c r="A119"/>
       <c r="B119" s="3" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C119" s="38"/>
       <c r="D119" s="8"/>
       <c r="E119" s="5" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F119" s="8"/>
       <c r="G119" s="22" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -2802,46 +2794,28 @@
     <row r="121" spans="1:7" ht="142.5">
       <c r="A121"/>
       <c r="B121" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="C121" s="38"/>
+        <v>160</v>
+      </c>
+      <c r="C121" s="8"/>
       <c r="D121" s="8"/>
       <c r="E121" s="5" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="F121" s="8"/>
       <c r="G121" s="22" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7">
-      <c r="A122"/>
-    </row>
-    <row r="123" spans="1:7" ht="142.5">
-      <c r="A123"/>
-      <c r="B123" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="C123" s="8"/>
-      <c r="D123" s="8"/>
-      <c r="E123" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="F123" s="8"/>
-      <c r="G123" s="22" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="124" spans="1:7" s="16" customFormat="1">
-      <c r="B124" s="47"/>
-      <c r="C124" s="36"/>
-      <c r="D124" s="36"/>
-      <c r="E124" s="36"/>
-      <c r="F124" s="36"/>
-      <c r="G124" s="36"/>
-    </row>
-    <row r="130" spans="4:4">
-      <c r="D130" s="30"/>
+    <row r="122" spans="1:7" s="16" customFormat="1">
+      <c r="B122" s="46"/>
+      <c r="C122" s="36"/>
+      <c r="D122" s="36"/>
+      <c r="E122" s="36"/>
+      <c r="F122" s="36"/>
+      <c r="G122" s="36"/>
+    </row>
+    <row r="128" spans="1:7">
+      <c r="D128" s="30"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/email_templates.xlsx
+++ b/email_templates.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thanos\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thanos\Desktop\dist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5B8D43A-9C68-4C6F-A4D9-1BFFEA68E2D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3261E1D-1117-4AF6-95AA-C568989B2A65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="178">
   <si>
     <t>TEMU</t>
   </si>
@@ -518,9 +518,6 @@
     <t>&lt;greeting&gt;,
 Thank you very much for contacting us.
 In order to be able to serve you and proceed with the cancellation of the parcel, you will need to inform us from the sender e-mail as stated, for identification purposes.</t>
-  </si>
-  <si>
-    <t>Λάθος email αποστολέα</t>
   </si>
   <si>
     <t>Λάθος στοιχεία ή τηλέφωνο και δεν έρχεται PIN</t>
@@ -719,17 +716,6 @@
     <t xml:space="preserve">Τελικά παραδόθηκε </t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;greeting&gt;,
-Σας ευχαριστούμε πολύ για την επικοινωνία.
-Εάν αναφέρεστε στο δέμα με αριθμό &lt;parcel_id&gt;, από ό,τι εντοπίζουμε, το δέμα σας έχει ήδη παραδοθεί.
-                                                                                                                                                                                                                                                                                                                                                                                                                      </t>
-  </si>
-  <si>
-    <t>&lt;greeting&gt;,
-Thank you very much for contacting us.
-If you refer to the package with a &lt;parcel_id&gt; number, as far as we can tell, your package has already been delivered.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Το δέμα σε λάθος θυρίδα </t>
   </si>
   <si>
@@ -923,6 +909,17 @@
     <t>&lt;greeting&gt;,
 Thank you very much for contacting us.
 Please forward your request to our relevant department, ict@boxnow.gr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;greeting&gt;,
+Σας ευχαριστούμε πολύ για την επικοινωνία.
+Όσον αφορά το δέμα με αριθμό &lt;parcel_id&gt;, από ό,τι εντοπίζουμε, το δέμα σας έχει ήδη παραδοθεί.
+                                                                                                                                                                                                                                                                                                                                                                                                                      </t>
+  </si>
+  <si>
+    <t>&lt;greeting&gt;,
+Thank you very much for contacting us.
+As for the parcel with &lt;parcel_id&gt; number, as far as we can see, your parcel has already been delivered.</t>
   </si>
 </sst>
 </file>
@@ -1568,10 +1565,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G128"/>
+  <dimension ref="A1:G126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A117" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G103" sqref="G103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1741,7 +1738,7 @@
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
       <c r="E15" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F15" s="8"/>
       <c r="G15" s="22" t="s">
@@ -1831,7 +1828,7 @@
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
       <c r="E23" s="5" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F23" s="8"/>
       <c r="G23" s="33" t="s">
@@ -1875,7 +1872,7 @@
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
       <c r="E27" s="5" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F27" s="38"/>
       <c r="G27" s="22" t="s">
@@ -1919,7 +1916,7 @@
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
       <c r="E31" s="23" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F31" s="38"/>
       <c r="G31" s="22" t="s">
@@ -1963,7 +1960,7 @@
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
       <c r="E35" s="11" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F35" s="8"/>
       <c r="G35" s="34" t="s">
@@ -2031,7 +2028,7 @@
       <c r="C41" s="8"/>
       <c r="D41" s="8"/>
       <c r="E41" s="5" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F41" s="38"/>
       <c r="G41" s="34" t="s">
@@ -2177,7 +2174,7 @@
       <c r="D54" s="43"/>
       <c r="E54" s="20"/>
     </row>
-    <row r="55" spans="1:7" ht="242.25" customHeight="1">
+    <row r="55" spans="1:7" ht="111" customHeight="1">
       <c r="A55" s="24"/>
       <c r="B55" s="3" t="s">
         <v>74</v>
@@ -2189,7 +2186,7 @@
       </c>
       <c r="F55" s="38"/>
       <c r="G55" s="22" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -2226,7 +2223,7 @@
     <row r="59" spans="1:7" s="27" customFormat="1" ht="85.5" customHeight="1">
       <c r="A59" s="2"/>
       <c r="B59" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C59" s="8"/>
       <c r="D59" s="8"/>
@@ -2249,7 +2246,7 @@
       <c r="C61" s="8"/>
       <c r="D61" s="8"/>
       <c r="E61" s="5" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F61" s="38"/>
       <c r="G61" s="22" t="s">
@@ -2365,296 +2362,290 @@
       </c>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="24"/>
-      <c r="B74" s="25"/>
-      <c r="C74" s="30"/>
-      <c r="D74" s="30"/>
-      <c r="E74" s="30"/>
-    </row>
-    <row r="75" spans="1:7" ht="112.5" customHeight="1">
+      <c r="A74" s="2"/>
+    </row>
+    <row r="75" spans="1:7" ht="171" customHeight="1">
+      <c r="A75"/>
       <c r="B75" s="3" t="s">
         <v>101</v>
       </c>
       <c r="C75" s="8"/>
       <c r="D75" s="8"/>
       <c r="E75" s="5" t="s">
-        <v>99</v>
+        <v>168</v>
       </c>
       <c r="F75" s="8"/>
       <c r="G75" s="22" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="2"/>
     </row>
-    <row r="77" spans="1:7" ht="171" customHeight="1">
-      <c r="A77"/>
+    <row r="77" spans="1:7" ht="207" customHeight="1">
       <c r="B77" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C77" s="8"/>
       <c r="D77" s="8"/>
       <c r="E77" s="5" t="s">
-        <v>171</v>
+        <v>104</v>
       </c>
       <c r="F77" s="8"/>
       <c r="G77" s="22" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="2"/>
-    </row>
-    <row r="79" spans="1:7" ht="207" customHeight="1">
+      <c r="A78" s="24"/>
+    </row>
+    <row r="79" spans="1:7" ht="171" customHeight="1">
+      <c r="A79"/>
       <c r="B79" s="3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C79" s="8"/>
       <c r="D79" s="8"/>
-      <c r="E79" s="5" t="s">
-        <v>105</v>
+      <c r="E79" s="7" t="s">
+        <v>107</v>
       </c>
       <c r="F79" s="8"/>
       <c r="G79" s="22" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
-      <c r="A80" s="24"/>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" s="31" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A80"/>
+      <c r="B80" s="25"/>
+      <c r="C80" s="30"/>
+      <c r="D80" s="30"/>
+      <c r="E80" s="30"/>
+      <c r="F80" s="35"/>
+      <c r="G80" s="35"/>
     </row>
     <row r="81" spans="1:7" ht="171" customHeight="1">
-      <c r="A81"/>
       <c r="B81" s="3" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C81" s="8"/>
       <c r="D81" s="8"/>
-      <c r="E81" s="7" t="s">
-        <v>108</v>
+      <c r="E81" s="5" t="s">
+        <v>110</v>
       </c>
       <c r="F81" s="8"/>
       <c r="G81" s="22" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" s="31" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A82"/>
-      <c r="B82" s="25"/>
-      <c r="C82" s="30"/>
-      <c r="D82" s="30"/>
-      <c r="E82" s="30"/>
-      <c r="F82" s="35"/>
-      <c r="G82" s="35"/>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" s="24"/>
     </row>
     <row r="83" spans="1:7" ht="171" customHeight="1">
+      <c r="A83"/>
       <c r="B83" s="3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C83" s="8"/>
       <c r="D83" s="8"/>
       <c r="E83" s="5" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="F83" s="8"/>
       <c r="G83" s="22" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="84" spans="1:7">
-      <c r="A84" s="24"/>
+      <c r="A84"/>
+      <c r="B84" s="25"/>
+      <c r="C84" s="30"/>
+      <c r="D84" s="30"/>
+      <c r="E84" s="30"/>
     </row>
     <row r="85" spans="1:7" ht="171" customHeight="1">
-      <c r="A85"/>
       <c r="B85" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C85" s="8"/>
       <c r="D85" s="8"/>
-      <c r="E85" s="5" t="s">
-        <v>172</v>
+      <c r="E85" s="7" t="s">
+        <v>115</v>
       </c>
       <c r="F85" s="8"/>
       <c r="G85" s="22" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86"/>
-      <c r="B86" s="25"/>
-      <c r="C86" s="30"/>
-      <c r="D86" s="30"/>
-      <c r="E86" s="30"/>
-    </row>
-    <row r="87" spans="1:7" ht="171" customHeight="1">
+    </row>
+    <row r="87" spans="1:7" ht="217.5" customHeight="1">
+      <c r="A87"/>
       <c r="B87" s="3" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C87" s="8"/>
       <c r="D87" s="8"/>
       <c r="E87" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F87" s="8"/>
       <c r="G87" s="22" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="18.75" customHeight="1">
       <c r="A88"/>
-    </row>
-    <row r="89" spans="1:7" ht="204" customHeight="1">
-      <c r="A89"/>
+      <c r="B88" s="25"/>
+      <c r="C88" s="30"/>
+      <c r="D88" s="30"/>
+      <c r="E88" s="30"/>
+    </row>
+    <row r="89" spans="1:7" ht="276" customHeight="1">
       <c r="B89" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C89" s="8"/>
       <c r="D89" s="8"/>
-      <c r="E89" s="7" t="s">
-        <v>119</v>
+      <c r="E89" s="5" t="s">
+        <v>121</v>
       </c>
       <c r="F89" s="8"/>
       <c r="G89" s="22" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" ht="18.75" customHeight="1">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="19.5" customHeight="1">
       <c r="A90"/>
-      <c r="B90" s="25"/>
-      <c r="C90" s="30"/>
-      <c r="D90" s="30"/>
-      <c r="E90" s="30"/>
-    </row>
-    <row r="91" spans="1:7" ht="276" customHeight="1">
+    </row>
+    <row r="91" spans="1:7" ht="258.75" customHeight="1">
+      <c r="A91"/>
       <c r="B91" s="3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C91" s="8"/>
       <c r="D91" s="8"/>
       <c r="E91" s="5" t="s">
-        <v>122</v>
+        <v>170</v>
       </c>
       <c r="F91" s="8"/>
       <c r="G91" s="22" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" ht="19.5" customHeight="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="27" customHeight="1">
       <c r="A92"/>
-    </row>
-    <row r="93" spans="1:7" ht="258.75" customHeight="1">
-      <c r="A93"/>
+      <c r="B92" s="25"/>
+      <c r="C92" s="30"/>
+      <c r="D92" s="30"/>
+      <c r="E92" s="28"/>
+      <c r="G92" s="37"/>
+    </row>
+    <row r="93" spans="1:7" ht="171" customHeight="1">
       <c r="B93" s="3" t="s">
         <v>124</v>
       </c>
       <c r="C93" s="8"/>
       <c r="D93" s="8"/>
       <c r="E93" s="5" t="s">
-        <v>173</v>
+        <v>125</v>
       </c>
       <c r="F93" s="8"/>
       <c r="G93" s="22" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" ht="27" customHeight="1">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="26.25" customHeight="1">
       <c r="A94"/>
-      <c r="B94" s="25"/>
-      <c r="C94" s="30"/>
-      <c r="D94" s="30"/>
-      <c r="E94" s="28"/>
-      <c r="G94" s="37"/>
     </row>
     <row r="95" spans="1:7" ht="171" customHeight="1">
+      <c r="A95"/>
       <c r="B95" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C95" s="8"/>
       <c r="D95" s="8"/>
-      <c r="E95" s="5" t="s">
-        <v>126</v>
+      <c r="E95" s="7" t="s">
+        <v>171</v>
       </c>
       <c r="F95" s="8"/>
       <c r="G95" s="22" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" ht="26.25" customHeight="1">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="30.75" customHeight="1">
       <c r="A96"/>
+      <c r="B96" s="25"/>
+      <c r="C96" s="44"/>
+      <c r="D96" s="44"/>
+      <c r="E96" s="44"/>
     </row>
     <row r="97" spans="1:7" ht="171" customHeight="1">
-      <c r="A97"/>
       <c r="B97" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C97" s="8"/>
-      <c r="D97" s="8"/>
+      <c r="D97" s="45"/>
       <c r="E97" s="7" t="s">
-        <v>174</v>
+        <v>130</v>
       </c>
       <c r="F97" s="8"/>
       <c r="G97" s="22" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" ht="30.75" customHeight="1">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="27" customHeight="1">
       <c r="A98"/>
-      <c r="B98" s="25"/>
-      <c r="C98" s="44"/>
-      <c r="D98" s="44"/>
-      <c r="E98" s="44"/>
     </row>
     <row r="99" spans="1:7" ht="171" customHeight="1">
+      <c r="A99"/>
       <c r="B99" s="3" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C99" s="8"/>
-      <c r="D99" s="45"/>
+      <c r="D99" s="8"/>
       <c r="E99" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F99" s="8"/>
       <c r="G99" s="22" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" ht="27" customHeight="1">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100"/>
     </row>
-    <row r="101" spans="1:7" ht="171" customHeight="1">
+    <row r="101" spans="1:7" ht="55.5" customHeight="1">
       <c r="A101"/>
       <c r="B101" s="3" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C101" s="8"/>
       <c r="D101" s="8"/>
-      <c r="E101" s="7" t="s">
-        <v>134</v>
+      <c r="E101" s="5" t="s">
+        <v>136</v>
       </c>
       <c r="F101" s="8"/>
       <c r="G101" s="22" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
-      <c r="A102"/>
-    </row>
-    <row r="103" spans="1:7" ht="55.5" customHeight="1">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" ht="85.5">
       <c r="A103"/>
       <c r="B103" s="3" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C103" s="8"/>
       <c r="D103" s="8"/>
       <c r="E103" s="5" t="s">
-        <v>137</v>
+        <v>176</v>
       </c>
       <c r="F103" s="8"/>
       <c r="G103" s="22" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" ht="99.75">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="128.25">
       <c r="A105"/>
       <c r="B105" s="3" t="s">
         <v>139</v>
@@ -2671,7 +2662,7 @@
     </row>
     <row r="107" spans="1:7" ht="128.25">
       <c r="A107"/>
-      <c r="B107" s="3" t="s">
+      <c r="B107" s="4" t="s">
         <v>142</v>
       </c>
       <c r="C107" s="8"/>
@@ -2684,42 +2675,50 @@
         <v>144</v>
       </c>
     </row>
-    <row r="109" spans="1:7" ht="128.25">
+    <row r="108" spans="1:7">
+      <c r="A108"/>
+    </row>
+    <row r="109" spans="1:7" ht="85.5">
       <c r="A109"/>
-      <c r="B109" s="4" t="s">
-        <v>145</v>
+      <c r="B109" s="3" t="s">
+        <v>174</v>
       </c>
       <c r="C109" s="8"/>
-      <c r="D109" s="8"/>
+      <c r="D109" s="32"/>
       <c r="E109" s="5" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="F109" s="8"/>
       <c r="G109" s="22" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7">
-      <c r="A110"/>
-    </row>
-    <row r="111" spans="1:7" ht="85.5">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" ht="142.5">
       <c r="A111"/>
       <c r="B111" s="3" t="s">
-        <v>177</v>
+        <v>145</v>
       </c>
       <c r="C111" s="8"/>
-      <c r="D111" s="32"/>
+      <c r="D111" s="8"/>
       <c r="E111" s="5" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="F111" s="8"/>
       <c r="G111" s="22" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" ht="142.5">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" s="47" customFormat="1">
+      <c r="B112" s="29"/>
+      <c r="C112" s="35"/>
+      <c r="D112" s="35"/>
+      <c r="E112" s="35"/>
+      <c r="F112" s="35"/>
+      <c r="G112" s="35"/>
+    </row>
+    <row r="113" spans="1:7" ht="85.5">
       <c r="A113"/>
-      <c r="B113" s="3" t="s">
+      <c r="B113" s="17" t="s">
         <v>148</v>
       </c>
       <c r="C113" s="8"/>
@@ -2732,20 +2731,12 @@
         <v>150</v>
       </c>
     </row>
-    <row r="114" spans="1:7" s="47" customFormat="1">
-      <c r="B114" s="29"/>
-      <c r="C114" s="35"/>
-      <c r="D114" s="35"/>
-      <c r="E114" s="35"/>
-      <c r="F114" s="35"/>
-      <c r="G114" s="35"/>
-    </row>
-    <row r="115" spans="1:7" ht="85.5">
+    <row r="115" spans="1:7" ht="185.25">
       <c r="A115"/>
-      <c r="B115" s="17" t="s">
+      <c r="B115" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="C115" s="8"/>
+      <c r="C115" s="38"/>
       <c r="D115" s="8"/>
       <c r="E115" s="5" t="s">
         <v>152</v>
@@ -2755,7 +2746,10 @@
         <v>153</v>
       </c>
     </row>
-    <row r="117" spans="1:7" ht="185.25">
+    <row r="116" spans="1:7">
+      <c r="A116"/>
+    </row>
+    <row r="117" spans="1:7" ht="142.5">
       <c r="A117"/>
       <c r="B117" s="3" t="s">
         <v>154</v>
@@ -2778,7 +2772,7 @@
       <c r="B119" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="C119" s="38"/>
+      <c r="C119" s="8"/>
       <c r="D119" s="8"/>
       <c r="E119" s="5" t="s">
         <v>158</v>
@@ -2788,34 +2782,17 @@
         <v>159</v>
       </c>
     </row>
-    <row r="120" spans="1:7">
-      <c r="A120"/>
-    </row>
-    <row r="121" spans="1:7" ht="142.5">
-      <c r="A121"/>
-      <c r="B121" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="C121" s="8"/>
-      <c r="D121" s="8"/>
-      <c r="E121" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="F121" s="8"/>
-      <c r="G121" s="22" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" s="16" customFormat="1">
-      <c r="B122" s="46"/>
-      <c r="C122" s="36"/>
-      <c r="D122" s="36"/>
-      <c r="E122" s="36"/>
-      <c r="F122" s="36"/>
-      <c r="G122" s="36"/>
-    </row>
-    <row r="128" spans="1:7">
-      <c r="D128" s="30"/>
+    <row r="120" spans="1:7" s="16" customFormat="1">
+      <c r="B120" s="46"/>
+      <c r="C120" s="36"/>
+      <c r="D120" s="36"/>
+      <c r="E120" s="36"/>
+      <c r="F120" s="36"/>
+      <c r="G120" s="36"/>
+    </row>
+    <row r="121" spans="1:7" ht="15" customHeight="1"/>
+    <row r="126" spans="1:7">
+      <c r="D126" s="30"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
